--- a/TestCase_GNG.xlsx
+++ b/TestCase_GNG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SQA\Test Case Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C4B21F-1763-4E85-9C64-C3F412CE1B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D347BD8E-F750-4B61-9E1E-7347196C8F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="274">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -2886,16 +2886,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2907,6 +2924,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2915,6 +2937,8 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2922,22 +2946,66 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2955,36 +3023,7 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2993,29 +3032,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3034,22 +3050,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3399,10 +3399,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5782,7 +5782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5803,39 +5803,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="252"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="278"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="253" t="s">
+      <c r="C5" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="255"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="272"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="253" t="s">
+      <c r="C6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="255"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="272"/>
       <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
@@ -5851,14 +5851,14 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="253"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="255"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="272"/>
       <c r="I7" s="7">
         <f>C15</f>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>9</v>
@@ -5870,16 +5870,16 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="253" t="s">
+      <c r="C8" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="255"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
+      <c r="G8" s="272"/>
       <c r="I8" s="7">
         <f>D15</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>12</v>
@@ -5891,13 +5891,13 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="253" t="s">
+      <c r="C9" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="255"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="272"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -5924,13 +5924,13 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="253" t="s">
+      <c r="C10" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="255"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="272"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -5946,22 +5946,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="265" t="s">
+      <c r="B11" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="267"/>
+      <c r="C11" s="274"/>
+      <c r="D11" s="274"/>
+      <c r="E11" s="274"/>
+      <c r="F11" s="274"/>
+      <c r="G11" s="275"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="262"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="264"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -5995,11 +5995,11 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19">
         <f>TestCase!M2</f>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D14" s="20">
         <f>TestCase!M3</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="21">
         <f>TestCase!M4</f>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="G14" s="23">
         <f>TestCase!M6</f>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ref="C15:G15" si="0">SUM(C14)</f>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="0"/>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="G15" s="28">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="29"/>
@@ -6096,21 +6096,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="268" t="s">
+      <c r="B18" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="252"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="277"/>
+      <c r="E18" s="277"/>
+      <c r="F18" s="277"/>
+      <c r="G18" s="278"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="251"/>
-      <c r="D19" s="252"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="278"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
         <v>29</v>
@@ -6120,11 +6120,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="270" t="s">
+      <c r="B20" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="251"/>
-      <c r="D20" s="252"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="278"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
         <v>32</v>
@@ -6134,11 +6134,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="270" t="s">
+      <c r="B21" s="280" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="251"/>
-      <c r="D21" s="252"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="278"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
         <v>32</v>
@@ -6149,306 +6149,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="278"/>
-      <c r="C23" s="271" t="s">
+      <c r="B23" s="283"/>
+      <c r="C23" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="274" t="s">
+      <c r="D23" s="282" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="258"/>
+      <c r="E23" s="262"/>
+      <c r="F23" s="262"/>
+      <c r="G23" s="263"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="272"/>
-      <c r="C24" s="272"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="261"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="266"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="272"/>
-      <c r="C25" s="272"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="261"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="265"/>
+      <c r="G25" s="266"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="273"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="263"/>
-      <c r="F26" s="263"/>
-      <c r="G26" s="264"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="268"/>
+      <c r="F26" s="268"/>
+      <c r="G26" s="269"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="275" t="s">
+      <c r="B27" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="276" t="s">
+      <c r="C27" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="256" t="s">
+      <c r="D27" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="257"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="258"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="263"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="272"/>
-      <c r="C28" s="272"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="261"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="266"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="272"/>
-      <c r="C29" s="272"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="261"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="265"/>
+      <c r="F29" s="265"/>
+      <c r="G29" s="266"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="273"/>
-      <c r="C30" s="273"/>
-      <c r="D30" s="262"/>
-      <c r="E30" s="263"/>
-      <c r="F30" s="263"/>
-      <c r="G30" s="264"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="268"/>
+      <c r="F30" s="268"/>
+      <c r="G30" s="269"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="275" t="s">
+      <c r="B31" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="276" t="s">
+      <c r="C31" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="256" t="s">
+      <c r="D31" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="258"/>
+      <c r="E31" s="262"/>
+      <c r="F31" s="262"/>
+      <c r="G31" s="263"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="272"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="260"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="261"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="257"/>
+      <c r="D32" s="264"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="265"/>
+      <c r="G32" s="266"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="260"/>
-      <c r="F33" s="260"/>
-      <c r="G33" s="261"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="264"/>
+      <c r="E33" s="265"/>
+      <c r="F33" s="265"/>
+      <c r="G33" s="266"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="273"/>
-      <c r="C34" s="273"/>
-      <c r="D34" s="262"/>
-      <c r="E34" s="263"/>
-      <c r="F34" s="263"/>
-      <c r="G34" s="264"/>
+      <c r="B34" s="258"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="267"/>
+      <c r="E34" s="268"/>
+      <c r="F34" s="268"/>
+      <c r="G34" s="269"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="275" t="s">
+      <c r="B35" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="276" t="s">
+      <c r="C35" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="256" t="s">
+      <c r="D35" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="257"/>
-      <c r="F35" s="257"/>
-      <c r="G35" s="258"/>
+      <c r="E35" s="262"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="263"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="272"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="260"/>
-      <c r="F36" s="260"/>
-      <c r="G36" s="261"/>
+      <c r="B36" s="257"/>
+      <c r="C36" s="257"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="265"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="266"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="272"/>
-      <c r="C37" s="272"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="261"/>
+      <c r="B37" s="257"/>
+      <c r="C37" s="257"/>
+      <c r="D37" s="264"/>
+      <c r="E37" s="265"/>
+      <c r="F37" s="265"/>
+      <c r="G37" s="266"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="273"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="262"/>
-      <c r="E38" s="263"/>
-      <c r="F38" s="263"/>
-      <c r="G38" s="264"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="268"/>
+      <c r="G38" s="269"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="275" t="s">
+      <c r="B39" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="276" t="s">
+      <c r="C39" s="256" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="256" t="s">
+      <c r="D39" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="257"/>
-      <c r="F39" s="257"/>
-      <c r="G39" s="258"/>
+      <c r="E39" s="262"/>
+      <c r="F39" s="262"/>
+      <c r="G39" s="263"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="272"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="259"/>
-      <c r="E40" s="260"/>
-      <c r="F40" s="260"/>
-      <c r="G40" s="261"/>
+      <c r="B40" s="257"/>
+      <c r="C40" s="257"/>
+      <c r="D40" s="264"/>
+      <c r="E40" s="265"/>
+      <c r="F40" s="265"/>
+      <c r="G40" s="266"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="272"/>
-      <c r="C41" s="272"/>
-      <c r="D41" s="259"/>
-      <c r="E41" s="260"/>
-      <c r="F41" s="260"/>
-      <c r="G41" s="261"/>
+      <c r="B41" s="257"/>
+      <c r="C41" s="257"/>
+      <c r="D41" s="264"/>
+      <c r="E41" s="265"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="266"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="273"/>
-      <c r="C42" s="273"/>
-      <c r="D42" s="262"/>
-      <c r="E42" s="263"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="264"/>
+      <c r="B42" s="258"/>
+      <c r="C42" s="258"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="268"/>
+      <c r="G42" s="269"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="275" t="s">
+      <c r="B43" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="277" t="s">
+      <c r="C43" s="260" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="256" t="s">
+      <c r="D43" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="257"/>
-      <c r="F43" s="257"/>
-      <c r="G43" s="258"/>
+      <c r="E43" s="262"/>
+      <c r="F43" s="262"/>
+      <c r="G43" s="263"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="272"/>
-      <c r="C44" s="272"/>
-      <c r="D44" s="259"/>
-      <c r="E44" s="260"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="261"/>
+      <c r="B44" s="257"/>
+      <c r="C44" s="257"/>
+      <c r="D44" s="264"/>
+      <c r="E44" s="265"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="266"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="272"/>
-      <c r="C45" s="272"/>
-      <c r="D45" s="259"/>
-      <c r="E45" s="260"/>
-      <c r="F45" s="260"/>
-      <c r="G45" s="261"/>
+      <c r="B45" s="257"/>
+      <c r="C45" s="257"/>
+      <c r="D45" s="264"/>
+      <c r="E45" s="265"/>
+      <c r="F45" s="265"/>
+      <c r="G45" s="266"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="273"/>
-      <c r="C46" s="273"/>
-      <c r="D46" s="262"/>
-      <c r="E46" s="263"/>
-      <c r="F46" s="263"/>
-      <c r="G46" s="264"/>
+      <c r="B46" s="258"/>
+      <c r="C46" s="258"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="268"/>
+      <c r="F46" s="268"/>
+      <c r="G46" s="269"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="275" t="s">
+      <c r="B47" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="277" t="s">
+      <c r="C47" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="256" t="s">
+      <c r="D47" s="261" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="257"/>
-      <c r="F47" s="257"/>
-      <c r="G47" s="258"/>
+      <c r="E47" s="262"/>
+      <c r="F47" s="262"/>
+      <c r="G47" s="263"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="272"/>
-      <c r="C48" s="272"/>
-      <c r="D48" s="259"/>
-      <c r="E48" s="260"/>
-      <c r="F48" s="260"/>
-      <c r="G48" s="261"/>
+      <c r="B48" s="257"/>
+      <c r="C48" s="257"/>
+      <c r="D48" s="264"/>
+      <c r="E48" s="265"/>
+      <c r="F48" s="265"/>
+      <c r="G48" s="266"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="272"/>
-      <c r="C49" s="272"/>
-      <c r="D49" s="259"/>
-      <c r="E49" s="260"/>
-      <c r="F49" s="260"/>
-      <c r="G49" s="261"/>
+      <c r="B49" s="257"/>
+      <c r="C49" s="257"/>
+      <c r="D49" s="264"/>
+      <c r="E49" s="265"/>
+      <c r="F49" s="265"/>
+      <c r="G49" s="266"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="273"/>
-      <c r="C50" s="273"/>
-      <c r="D50" s="262"/>
-      <c r="E50" s="263"/>
-      <c r="F50" s="263"/>
-      <c r="G50" s="264"/>
+      <c r="B50" s="258"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="267"/>
+      <c r="E50" s="268"/>
+      <c r="F50" s="268"/>
+      <c r="G50" s="269"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="275" t="s">
+      <c r="B51" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="277" t="s">
+      <c r="C51" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="256" t="s">
+      <c r="D51" s="261" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="257"/>
-      <c r="F51" s="257"/>
-      <c r="G51" s="258"/>
+      <c r="E51" s="262"/>
+      <c r="F51" s="262"/>
+      <c r="G51" s="263"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="272"/>
-      <c r="C52" s="272"/>
-      <c r="D52" s="259"/>
-      <c r="E52" s="260"/>
-      <c r="F52" s="260"/>
-      <c r="G52" s="261"/>
+      <c r="B52" s="257"/>
+      <c r="C52" s="257"/>
+      <c r="D52" s="264"/>
+      <c r="E52" s="265"/>
+      <c r="F52" s="265"/>
+      <c r="G52" s="266"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="272"/>
-      <c r="C53" s="272"/>
-      <c r="D53" s="259"/>
-      <c r="E53" s="260"/>
-      <c r="F53" s="260"/>
-      <c r="G53" s="261"/>
+      <c r="B53" s="257"/>
+      <c r="C53" s="257"/>
+      <c r="D53" s="264"/>
+      <c r="E53" s="265"/>
+      <c r="F53" s="265"/>
+      <c r="G53" s="266"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="273"/>
-      <c r="C54" s="273"/>
-      <c r="D54" s="262"/>
-      <c r="E54" s="263"/>
-      <c r="F54" s="263"/>
-      <c r="G54" s="264"/>
+      <c r="B54" s="258"/>
+      <c r="C54" s="258"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="268"/>
+      <c r="F54" s="268"/>
+      <c r="G54" s="269"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -7398,21 +7398,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="D27:G30"/>
@@ -7429,11 +7419,21 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -7445,9 +7445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC1003"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -7470,33 +7470,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="317" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="250" t="s">
         <v>181</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="318">
+      <c r="E1" s="251">
         <v>45206</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="318">
+      <c r="G1" s="251">
         <v>45206</v>
       </c>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="281" t="s">
+      <c r="L1" s="307" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="282"/>
+      <c r="M1" s="308"/>
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -7515,10 +7515,10 @@
       <c r="AC1" s="37"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="306" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="252"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="M2" s="42">
         <f>COUNTIF(L8:L77, "Passed")</f>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
@@ -7563,10 +7563,10 @@
       <c r="AC2" s="37"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="306" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="278"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
         <v>59</v>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="M3" s="42">
         <f>COUNTIF(L8:L503, "Failed")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="37"/>
       <c r="O3" s="37"/>
@@ -7609,10 +7609,10 @@
       <c r="AC3" s="37"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="306" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="252"/>
+      <c r="B4" s="278"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
         <v>63</v>
@@ -7653,15 +7653,15 @@
       <c r="AC4" s="37"/>
     </row>
     <row r="5" spans="1:29" ht="31.5" customHeight="1">
-      <c r="A5" s="297" t="s">
+      <c r="A5" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="B5" s="278"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="278"/>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
@@ -7707,7 +7707,7 @@
       </c>
       <c r="M6" s="53">
         <f>SUM(M2:M5)</f>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
@@ -7865,13 +7865,13 @@
       <c r="A10" s="75">
         <v>2</v>
       </c>
-      <c r="B10" s="279" t="s">
+      <c r="B10" s="305" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="298" t="s">
+      <c r="C10" s="313" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="279" t="s">
+      <c r="D10" s="305" t="s">
         <v>195</v>
       </c>
       <c r="E10" s="62" t="s">
@@ -7916,9 +7916,9 @@
       <c r="A11" s="75">
         <v>3</v>
       </c>
-      <c r="B11" s="272"/>
-      <c r="C11" s="272"/>
-      <c r="D11" s="272"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="257"/>
       <c r="E11" s="62" t="s">
         <v>92</v>
       </c>
@@ -7961,9 +7961,9 @@
       <c r="A12" s="75">
         <v>4</v>
       </c>
-      <c r="B12" s="272"/>
-      <c r="C12" s="272"/>
-      <c r="D12" s="272"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="62" t="s">
         <v>94</v>
       </c>
@@ -8006,9 +8006,9 @@
       <c r="A13" s="75">
         <v>5</v>
       </c>
-      <c r="B13" s="272"/>
-      <c r="C13" s="272"/>
-      <c r="D13" s="272"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="257"/>
       <c r="E13" s="62" t="s">
         <v>96</v>
       </c>
@@ -8051,9 +8051,9 @@
       <c r="A14" s="75">
         <v>6</v>
       </c>
-      <c r="B14" s="272"/>
-      <c r="C14" s="272"/>
-      <c r="D14" s="272"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
       <c r="E14" s="62" t="s">
         <v>98</v>
       </c>
@@ -8096,9 +8096,9 @@
       <c r="A15" s="75">
         <v>7</v>
       </c>
-      <c r="B15" s="272"/>
-      <c r="C15" s="272"/>
-      <c r="D15" s="272"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
       <c r="E15" s="62" t="s">
         <v>192</v>
       </c>
@@ -8141,9 +8141,9 @@
       <c r="A16" s="75">
         <v>8</v>
       </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="257"/>
       <c r="E16" s="62" t="s">
         <v>101</v>
       </c>
@@ -8186,9 +8186,9 @@
       <c r="A17" s="75">
         <v>9</v>
       </c>
-      <c r="B17" s="272"/>
-      <c r="C17" s="273"/>
-      <c r="D17" s="272"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="257"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62"/>
@@ -8217,9 +8217,9 @@
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1">
       <c r="A18" s="68"/>
-      <c r="B18" s="272"/>
+      <c r="B18" s="257"/>
       <c r="C18" s="83"/>
-      <c r="D18" s="272"/>
+      <c r="D18" s="257"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="84"/>
@@ -8250,11 +8250,11 @@
       <c r="A19" s="90">
         <v>10</v>
       </c>
-      <c r="B19" s="272"/>
-      <c r="C19" s="279" t="s">
+      <c r="B19" s="257"/>
+      <c r="C19" s="305" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="272"/>
+      <c r="D19" s="257"/>
       <c r="E19" s="91" t="s">
         <v>104</v>
       </c>
@@ -8297,9 +8297,9 @@
       <c r="A20" s="90">
         <v>11</v>
       </c>
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="272"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="257"/>
       <c r="E20" s="91" t="s">
         <v>197</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="G20" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="H20" s="319" t="s">
+      <c r="H20" s="252" t="s">
         <v>200</v>
       </c>
       <c r="I20" s="92" t="s">
@@ -8342,9 +8342,9 @@
       <c r="A21" s="90">
         <v>12</v>
       </c>
-      <c r="B21" s="272"/>
-      <c r="C21" s="272"/>
-      <c r="D21" s="272"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="257"/>
       <c r="E21" s="98" t="s">
         <v>202</v>
       </c>
@@ -8387,9 +8387,9 @@
       <c r="A22" s="90">
         <v>13</v>
       </c>
-      <c r="B22" s="272"/>
-      <c r="C22" s="272"/>
-      <c r="D22" s="272"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="257"/>
       <c r="E22" s="98" t="s">
         <v>204</v>
       </c>
@@ -8432,9 +8432,9 @@
       <c r="A23" s="90">
         <v>14</v>
       </c>
-      <c r="B23" s="272"/>
-      <c r="C23" s="272"/>
-      <c r="D23" s="272"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="257"/>
       <c r="E23" s="98" t="s">
         <v>107</v>
       </c>
@@ -8477,9 +8477,9 @@
       <c r="A24" s="90">
         <v>15</v>
       </c>
-      <c r="B24" s="272"/>
-      <c r="C24" s="272"/>
-      <c r="D24" s="272"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="257"/>
       <c r="E24" s="91" t="s">
         <v>208</v>
       </c>
@@ -8520,9 +8520,9 @@
       <c r="A25" s="90">
         <v>16</v>
       </c>
-      <c r="B25" s="272"/>
-      <c r="C25" s="272"/>
-      <c r="D25" s="272"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="257"/>
       <c r="E25" s="91" t="s">
         <v>211</v>
       </c>
@@ -8565,9 +8565,9 @@
       <c r="A26" s="90">
         <v>17</v>
       </c>
-      <c r="B26" s="272"/>
-      <c r="C26" s="272"/>
-      <c r="D26" s="272"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="257"/>
       <c r="E26" s="91" t="s">
         <v>215</v>
       </c>
@@ -8577,7 +8577,7 @@
       <c r="G26" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="319" t="s">
+      <c r="H26" s="252" t="s">
         <v>213</v>
       </c>
       <c r="I26" s="92" t="s">
@@ -8610,9 +8610,9 @@
       <c r="A27" s="90">
         <v>18</v>
       </c>
-      <c r="B27" s="272"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="257"/>
       <c r="E27" s="91" t="s">
         <v>216</v>
       </c>
@@ -8655,9 +8655,9 @@
       <c r="A28" s="90">
         <v>19</v>
       </c>
-      <c r="B28" s="272"/>
-      <c r="C28" s="272"/>
-      <c r="D28" s="272"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="257"/>
       <c r="E28" s="91" t="s">
         <v>110</v>
       </c>
@@ -8700,9 +8700,9 @@
       <c r="A29" s="90">
         <v>20</v>
       </c>
-      <c r="B29" s="272"/>
-      <c r="C29" s="272"/>
-      <c r="D29" s="272"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="257"/>
       <c r="E29" s="91" t="s">
         <v>112</v>
       </c>
@@ -8745,9 +8745,9 @@
       <c r="A30" s="90">
         <v>21</v>
       </c>
-      <c r="B30" s="272"/>
-      <c r="C30" s="272"/>
-      <c r="D30" s="272"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="257"/>
+      <c r="D30" s="257"/>
       <c r="E30" s="91" t="s">
         <v>113</v>
       </c>
@@ -8790,9 +8790,9 @@
       <c r="A31" s="90">
         <v>22</v>
       </c>
-      <c r="B31" s="272"/>
-      <c r="C31" s="272"/>
-      <c r="D31" s="272"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="257"/>
       <c r="E31" s="91" t="s">
         <v>117</v>
       </c>
@@ -8835,9 +8835,9 @@
       <c r="A32" s="90">
         <v>23</v>
       </c>
-      <c r="B32" s="272"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="257"/>
+      <c r="D32" s="257"/>
       <c r="E32" s="91" t="s">
         <v>227</v>
       </c>
@@ -8851,7 +8851,7 @@
       <c r="I32" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="J32" s="319" t="s">
+      <c r="J32" s="252" t="s">
         <v>229</v>
       </c>
       <c r="K32" s="92"/>
@@ -8880,9 +8880,9 @@
       <c r="A33" s="90">
         <v>24</v>
       </c>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="257"/>
       <c r="E33" s="98"/>
       <c r="F33" s="92"/>
       <c r="G33" s="92"/>
@@ -8890,9 +8890,7 @@
       <c r="I33" s="93"/>
       <c r="J33" s="92"/>
       <c r="K33" s="92"/>
-      <c r="L33" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L33" s="65"/>
       <c r="M33" s="97"/>
       <c r="N33" s="95"/>
       <c r="O33" s="95"/>
@@ -8915,9 +8913,9 @@
       <c r="A34" s="90">
         <v>25</v>
       </c>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="257"/>
+      <c r="D34" s="257"/>
       <c r="E34" s="98"/>
       <c r="F34" s="92"/>
       <c r="G34" s="92"/>
@@ -8925,9 +8923,7 @@
       <c r="I34" s="93"/>
       <c r="J34" s="92"/>
       <c r="K34" s="92"/>
-      <c r="L34" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L34" s="65"/>
       <c r="M34" s="97"/>
       <c r="N34" s="95"/>
       <c r="O34" s="95"/>
@@ -8950,9 +8946,9 @@
       <c r="A35" s="90">
         <v>26</v>
       </c>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
+      <c r="B35" s="257"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="257"/>
       <c r="E35" s="62"/>
       <c r="F35" s="62"/>
       <c r="G35" s="92"/>
@@ -8960,9 +8956,7 @@
       <c r="I35" s="93"/>
       <c r="J35" s="92"/>
       <c r="K35" s="92"/>
-      <c r="L35" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L35" s="65"/>
       <c r="M35" s="65"/>
       <c r="N35" s="95"/>
       <c r="O35" s="95"/>
@@ -8985,9 +8979,9 @@
       <c r="A36" s="90">
         <v>27</v>
       </c>
-      <c r="B36" s="272"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="272"/>
+      <c r="B36" s="257"/>
+      <c r="C36" s="257"/>
+      <c r="D36" s="257"/>
       <c r="E36" s="62"/>
       <c r="F36" s="62"/>
       <c r="G36" s="92"/>
@@ -8995,9 +8989,7 @@
       <c r="I36" s="93"/>
       <c r="J36" s="92"/>
       <c r="K36" s="92"/>
-      <c r="L36" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="95"/>
       <c r="O36" s="95"/>
@@ -9020,9 +9012,9 @@
       <c r="A37" s="90">
         <v>28</v>
       </c>
-      <c r="B37" s="272"/>
-      <c r="C37" s="272"/>
-      <c r="D37" s="272"/>
+      <c r="B37" s="257"/>
+      <c r="C37" s="257"/>
+      <c r="D37" s="257"/>
       <c r="E37" s="62"/>
       <c r="F37" s="62"/>
       <c r="G37" s="92"/>
@@ -9030,9 +9022,7 @@
       <c r="I37" s="93"/>
       <c r="J37" s="92"/>
       <c r="K37" s="92"/>
-      <c r="L37" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L37" s="65"/>
       <c r="M37" s="65"/>
       <c r="N37" s="95"/>
       <c r="O37" s="95"/>
@@ -9055,9 +9045,9 @@
       <c r="A38" s="90">
         <v>29</v>
       </c>
-      <c r="B38" s="272"/>
-      <c r="C38" s="272"/>
-      <c r="D38" s="272"/>
+      <c r="B38" s="257"/>
+      <c r="C38" s="257"/>
+      <c r="D38" s="257"/>
       <c r="E38" s="62"/>
       <c r="F38" s="62"/>
       <c r="G38" s="92"/>
@@ -9065,9 +9055,7 @@
       <c r="I38" s="93"/>
       <c r="J38" s="92"/>
       <c r="K38" s="92"/>
-      <c r="L38" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L38" s="65"/>
       <c r="M38" s="65"/>
       <c r="N38" s="95"/>
       <c r="O38" s="95"/>
@@ -9090,9 +9078,9 @@
       <c r="A39" s="90">
         <v>30</v>
       </c>
-      <c r="B39" s="272"/>
-      <c r="C39" s="272"/>
-      <c r="D39" s="272"/>
+      <c r="B39" s="257"/>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
       <c r="E39" s="62"/>
       <c r="F39" s="62"/>
       <c r="G39" s="92"/>
@@ -9100,9 +9088,7 @@
       <c r="I39" s="93"/>
       <c r="J39" s="92"/>
       <c r="K39" s="92"/>
-      <c r="L39" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L39" s="65"/>
       <c r="M39" s="65"/>
       <c r="N39" s="95"/>
       <c r="O39" s="95"/>
@@ -9125,9 +9111,9 @@
       <c r="A40" s="90">
         <v>31</v>
       </c>
-      <c r="B40" s="272"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="272"/>
+      <c r="B40" s="257"/>
+      <c r="C40" s="257"/>
+      <c r="D40" s="257"/>
       <c r="E40" s="62"/>
       <c r="F40" s="62"/>
       <c r="G40" s="92"/>
@@ -9135,9 +9121,7 @@
       <c r="I40" s="93"/>
       <c r="J40" s="92"/>
       <c r="K40" s="92"/>
-      <c r="L40" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L40" s="65"/>
       <c r="M40" s="65"/>
       <c r="N40" s="95"/>
       <c r="O40" s="95"/>
@@ -9160,9 +9144,9 @@
       <c r="A41" s="90">
         <v>32</v>
       </c>
-      <c r="B41" s="272"/>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
+      <c r="B41" s="257"/>
+      <c r="C41" s="257"/>
+      <c r="D41" s="257"/>
       <c r="E41" s="62"/>
       <c r="F41" s="62"/>
       <c r="G41" s="92"/>
@@ -9170,9 +9154,7 @@
       <c r="I41" s="93"/>
       <c r="J41" s="92"/>
       <c r="K41" s="92"/>
-      <c r="L41" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L41" s="65"/>
       <c r="M41" s="65"/>
       <c r="N41" s="95"/>
       <c r="O41" s="95"/>
@@ -9195,9 +9177,9 @@
       <c r="A42" s="90">
         <v>33</v>
       </c>
-      <c r="B42" s="272"/>
-      <c r="C42" s="272"/>
-      <c r="D42" s="272"/>
+      <c r="B42" s="257"/>
+      <c r="C42" s="257"/>
+      <c r="D42" s="257"/>
       <c r="E42" s="62"/>
       <c r="F42" s="62"/>
       <c r="G42" s="92"/>
@@ -9205,9 +9187,7 @@
       <c r="I42" s="93"/>
       <c r="J42" s="92"/>
       <c r="K42" s="92"/>
-      <c r="L42" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L42" s="65"/>
       <c r="M42" s="65"/>
       <c r="N42" s="95"/>
       <c r="O42" s="95"/>
@@ -9230,9 +9210,9 @@
       <c r="A43" s="90">
         <v>34</v>
       </c>
-      <c r="B43" s="272"/>
-      <c r="C43" s="272"/>
-      <c r="D43" s="272"/>
+      <c r="B43" s="257"/>
+      <c r="C43" s="257"/>
+      <c r="D43" s="257"/>
       <c r="E43" s="62"/>
       <c r="F43" s="62"/>
       <c r="G43" s="92"/>
@@ -9240,9 +9220,7 @@
       <c r="I43" s="93"/>
       <c r="J43" s="92"/>
       <c r="K43" s="92"/>
-      <c r="L43" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L43" s="65"/>
       <c r="M43" s="65"/>
       <c r="N43" s="95"/>
       <c r="O43" s="95"/>
@@ -9265,9 +9243,9 @@
       <c r="A44" s="90">
         <v>35</v>
       </c>
-      <c r="B44" s="272"/>
-      <c r="C44" s="272"/>
-      <c r="D44" s="272"/>
+      <c r="B44" s="257"/>
+      <c r="C44" s="257"/>
+      <c r="D44" s="257"/>
       <c r="E44" s="62"/>
       <c r="F44" s="62"/>
       <c r="G44" s="92"/>
@@ -9275,9 +9253,7 @@
       <c r="I44" s="93"/>
       <c r="J44" s="92"/>
       <c r="K44" s="92"/>
-      <c r="L44" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L44" s="65"/>
       <c r="M44" s="65"/>
       <c r="N44" s="95"/>
       <c r="O44" s="95"/>
@@ -9300,9 +9276,9 @@
       <c r="A45" s="90">
         <v>36</v>
       </c>
-      <c r="B45" s="272"/>
-      <c r="C45" s="272"/>
-      <c r="D45" s="272"/>
+      <c r="B45" s="257"/>
+      <c r="C45" s="257"/>
+      <c r="D45" s="257"/>
       <c r="E45" s="62"/>
       <c r="F45" s="62"/>
       <c r="G45" s="92"/>
@@ -9310,9 +9286,7 @@
       <c r="I45" s="93"/>
       <c r="J45" s="92"/>
       <c r="K45" s="92"/>
-      <c r="L45" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L45" s="65"/>
       <c r="M45" s="65"/>
       <c r="N45" s="95"/>
       <c r="O45" s="95"/>
@@ -9335,9 +9309,9 @@
       <c r="A46" s="90">
         <v>37</v>
       </c>
-      <c r="B46" s="272"/>
-      <c r="C46" s="272"/>
-      <c r="D46" s="272"/>
+      <c r="B46" s="257"/>
+      <c r="C46" s="257"/>
+      <c r="D46" s="257"/>
       <c r="E46" s="62"/>
       <c r="F46" s="62"/>
       <c r="G46" s="92"/>
@@ -9345,9 +9319,7 @@
       <c r="I46" s="93"/>
       <c r="J46" s="92"/>
       <c r="K46" s="92"/>
-      <c r="L46" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L46" s="65"/>
       <c r="M46" s="65"/>
       <c r="N46" s="95"/>
       <c r="O46" s="95"/>
@@ -9370,9 +9342,9 @@
       <c r="A47" s="90">
         <v>38</v>
       </c>
-      <c r="B47" s="272"/>
-      <c r="C47" s="272"/>
-      <c r="D47" s="272"/>
+      <c r="B47" s="257"/>
+      <c r="C47" s="257"/>
+      <c r="D47" s="257"/>
       <c r="E47" s="62"/>
       <c r="F47" s="62"/>
       <c r="G47" s="92"/>
@@ -9380,9 +9352,7 @@
       <c r="I47" s="93"/>
       <c r="J47" s="92"/>
       <c r="K47" s="92"/>
-      <c r="L47" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L47" s="65"/>
       <c r="M47" s="65"/>
       <c r="N47" s="95"/>
       <c r="O47" s="95"/>
@@ -9405,9 +9375,9 @@
       <c r="A48" s="90">
         <v>39</v>
       </c>
-      <c r="B48" s="272"/>
-      <c r="C48" s="272"/>
-      <c r="D48" s="272"/>
+      <c r="B48" s="257"/>
+      <c r="C48" s="257"/>
+      <c r="D48" s="257"/>
       <c r="E48" s="62"/>
       <c r="F48" s="62"/>
       <c r="G48" s="92"/>
@@ -9415,9 +9385,7 @@
       <c r="I48" s="93"/>
       <c r="J48" s="92"/>
       <c r="K48" s="92"/>
-      <c r="L48" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L48" s="65"/>
       <c r="M48" s="65"/>
       <c r="N48" s="95"/>
       <c r="O48" s="95"/>
@@ -9440,9 +9408,9 @@
       <c r="A49" s="90">
         <v>40</v>
       </c>
-      <c r="B49" s="272"/>
-      <c r="C49" s="272"/>
-      <c r="D49" s="272"/>
+      <c r="B49" s="257"/>
+      <c r="C49" s="257"/>
+      <c r="D49" s="257"/>
       <c r="E49" s="62"/>
       <c r="F49" s="62"/>
       <c r="G49" s="92"/>
@@ -9450,9 +9418,7 @@
       <c r="I49" s="93"/>
       <c r="J49" s="92"/>
       <c r="K49" s="92"/>
-      <c r="L49" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L49" s="65"/>
       <c r="M49" s="65"/>
       <c r="N49" s="95"/>
       <c r="O49" s="95"/>
@@ -9475,9 +9441,9 @@
       <c r="A50" s="90">
         <v>41</v>
       </c>
-      <c r="B50" s="272"/>
-      <c r="C50" s="272"/>
-      <c r="D50" s="272"/>
+      <c r="B50" s="257"/>
+      <c r="C50" s="257"/>
+      <c r="D50" s="257"/>
       <c r="E50" s="62"/>
       <c r="F50" s="62"/>
       <c r="G50" s="92"/>
@@ -9485,9 +9451,7 @@
       <c r="I50" s="93"/>
       <c r="J50" s="92"/>
       <c r="K50" s="92"/>
-      <c r="L50" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L50" s="65"/>
       <c r="M50" s="65"/>
       <c r="N50" s="95"/>
       <c r="O50" s="95"/>
@@ -9510,9 +9474,9 @@
       <c r="A51" s="90">
         <v>42</v>
       </c>
-      <c r="B51" s="272"/>
-      <c r="C51" s="272"/>
-      <c r="D51" s="272"/>
+      <c r="B51" s="257"/>
+      <c r="C51" s="257"/>
+      <c r="D51" s="257"/>
       <c r="E51" s="62"/>
       <c r="F51" s="62"/>
       <c r="G51" s="92"/>
@@ -9520,9 +9484,7 @@
       <c r="I51" s="93"/>
       <c r="J51" s="92"/>
       <c r="K51" s="92"/>
-      <c r="L51" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L51" s="65"/>
       <c r="M51" s="65"/>
       <c r="N51" s="95"/>
       <c r="O51" s="95"/>
@@ -9545,9 +9507,9 @@
       <c r="A52" s="90">
         <v>43</v>
       </c>
-      <c r="B52" s="272"/>
-      <c r="C52" s="272"/>
-      <c r="D52" s="272"/>
+      <c r="B52" s="257"/>
+      <c r="C52" s="257"/>
+      <c r="D52" s="257"/>
       <c r="E52" s="62"/>
       <c r="F52" s="62"/>
       <c r="G52" s="92"/>
@@ -9555,9 +9517,7 @@
       <c r="I52" s="93"/>
       <c r="J52" s="99"/>
       <c r="K52" s="92"/>
-      <c r="L52" s="65" t="s">
-        <v>103</v>
-      </c>
+      <c r="L52" s="65"/>
       <c r="M52" s="65"/>
       <c r="N52" s="95"/>
       <c r="O52" s="95"/>
@@ -9580,9 +9540,9 @@
       <c r="A53" s="90">
         <v>44</v>
       </c>
-      <c r="B53" s="272"/>
-      <c r="C53" s="272"/>
-      <c r="D53" s="272"/>
+      <c r="B53" s="257"/>
+      <c r="C53" s="257"/>
+      <c r="D53" s="257"/>
       <c r="E53" s="92"/>
       <c r="F53" s="92"/>
       <c r="G53" s="92"/>
@@ -9590,9 +9550,7 @@
       <c r="I53" s="93"/>
       <c r="J53" s="92"/>
       <c r="K53" s="92"/>
-      <c r="L53" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L53" s="65"/>
       <c r="M53" s="65"/>
       <c r="N53" s="95"/>
       <c r="O53" s="95"/>
@@ -9615,9 +9573,9 @@
       <c r="A54" s="90">
         <v>45</v>
       </c>
-      <c r="B54" s="272"/>
-      <c r="C54" s="272"/>
-      <c r="D54" s="272"/>
+      <c r="B54" s="257"/>
+      <c r="C54" s="257"/>
+      <c r="D54" s="257"/>
       <c r="E54" s="92"/>
       <c r="F54" s="92"/>
       <c r="G54" s="92"/>
@@ -9625,9 +9583,7 @@
       <c r="I54" s="93"/>
       <c r="J54" s="92"/>
       <c r="K54" s="92"/>
-      <c r="L54" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L54" s="65"/>
       <c r="M54" s="65"/>
       <c r="N54" s="95"/>
       <c r="O54" s="95"/>
@@ -9650,9 +9606,9 @@
       <c r="A55" s="90">
         <v>46</v>
       </c>
-      <c r="B55" s="272"/>
-      <c r="C55" s="272"/>
-      <c r="D55" s="272"/>
+      <c r="B55" s="257"/>
+      <c r="C55" s="257"/>
+      <c r="D55" s="257"/>
       <c r="E55" s="98"/>
       <c r="F55" s="92"/>
       <c r="G55" s="92"/>
@@ -9660,9 +9616,7 @@
       <c r="I55" s="93"/>
       <c r="J55" s="92"/>
       <c r="K55" s="92"/>
-      <c r="L55" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L55" s="65"/>
       <c r="M55" s="97"/>
       <c r="N55" s="95"/>
       <c r="O55" s="95"/>
@@ -9685,9 +9639,9 @@
       <c r="A56" s="90">
         <v>47</v>
       </c>
-      <c r="B56" s="272"/>
-      <c r="C56" s="273"/>
-      <c r="D56" s="272"/>
+      <c r="B56" s="257"/>
+      <c r="C56" s="258"/>
+      <c r="D56" s="257"/>
       <c r="E56" s="98"/>
       <c r="F56" s="92"/>
       <c r="G56" s="92"/>
@@ -9695,9 +9649,7 @@
       <c r="I56" s="92"/>
       <c r="J56" s="92"/>
       <c r="K56" s="92"/>
-      <c r="L56" s="65" t="s">
-        <v>86</v>
-      </c>
+      <c r="L56" s="65"/>
       <c r="M56" s="65"/>
       <c r="N56" s="95"/>
       <c r="O56" s="95"/>
@@ -9718,9 +9670,9 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1">
       <c r="A57" s="102"/>
-      <c r="B57" s="272"/>
+      <c r="B57" s="257"/>
       <c r="C57" s="103"/>
-      <c r="D57" s="272"/>
+      <c r="D57" s="257"/>
       <c r="E57" s="104"/>
       <c r="F57" s="84"/>
       <c r="G57" s="84"/>
@@ -9751,11 +9703,11 @@
       <c r="A58" s="90">
         <v>48</v>
       </c>
-      <c r="B58" s="272"/>
-      <c r="C58" s="279" t="s">
+      <c r="B58" s="257"/>
+      <c r="C58" s="305" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="272"/>
+      <c r="D58" s="257"/>
       <c r="E58" s="98" t="s">
         <v>230</v>
       </c>
@@ -9798,9 +9750,9 @@
       <c r="A59" s="90">
         <v>49</v>
       </c>
-      <c r="B59" s="272"/>
-      <c r="C59" s="272"/>
-      <c r="D59" s="272"/>
+      <c r="B59" s="257"/>
+      <c r="C59" s="257"/>
+      <c r="D59" s="257"/>
       <c r="E59" s="106" t="s">
         <v>233</v>
       </c>
@@ -9843,9 +9795,9 @@
       <c r="A60" s="90">
         <v>50</v>
       </c>
-      <c r="B60" s="272"/>
-      <c r="C60" s="273"/>
-      <c r="D60" s="273"/>
+      <c r="B60" s="257"/>
+      <c r="C60" s="258"/>
+      <c r="D60" s="258"/>
       <c r="E60" s="106" t="s">
         <v>237</v>
       </c>
@@ -9886,7 +9838,7 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1">
       <c r="A61" s="90"/>
-      <c r="B61" s="272"/>
+      <c r="B61" s="257"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
       <c r="E61" s="109"/>
@@ -9919,11 +9871,11 @@
       <c r="A62" s="90">
         <v>51</v>
       </c>
-      <c r="B62" s="272"/>
-      <c r="C62" s="299" t="s">
+      <c r="B62" s="257"/>
+      <c r="C62" s="314" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="299" t="s">
+      <c r="D62" s="314" t="s">
         <v>249</v>
       </c>
       <c r="E62" s="92" t="s">
@@ -9968,9 +9920,9 @@
       <c r="A63" s="90">
         <v>52</v>
       </c>
-      <c r="B63" s="272"/>
-      <c r="C63" s="272"/>
-      <c r="D63" s="272"/>
+      <c r="B63" s="257"/>
+      <c r="C63" s="257"/>
+      <c r="D63" s="257"/>
       <c r="E63" s="98" t="s">
         <v>123</v>
       </c>
@@ -10013,9 +9965,9 @@
       <c r="A64" s="90">
         <v>53</v>
       </c>
-      <c r="B64" s="272"/>
-      <c r="C64" s="272"/>
-      <c r="D64" s="272"/>
+      <c r="B64" s="257"/>
+      <c r="C64" s="257"/>
+      <c r="D64" s="257"/>
       <c r="E64" s="98" t="s">
         <v>124</v>
       </c>
@@ -10058,9 +10010,9 @@
       <c r="A65" s="90">
         <v>54</v>
       </c>
-      <c r="B65" s="272"/>
-      <c r="C65" s="272"/>
-      <c r="D65" s="272"/>
+      <c r="B65" s="257"/>
+      <c r="C65" s="257"/>
+      <c r="D65" s="257"/>
       <c r="E65" s="98" t="s">
         <v>126</v>
       </c>
@@ -10103,9 +10055,9 @@
       <c r="A66" s="90">
         <v>55</v>
       </c>
-      <c r="B66" s="272"/>
-      <c r="C66" s="272"/>
-      <c r="D66" s="272"/>
+      <c r="B66" s="257"/>
+      <c r="C66" s="257"/>
+      <c r="D66" s="257"/>
       <c r="E66" s="98" t="s">
         <v>128</v>
       </c>
@@ -10148,9 +10100,9 @@
       <c r="A67" s="90">
         <v>56</v>
       </c>
-      <c r="B67" s="272"/>
-      <c r="C67" s="272"/>
-      <c r="D67" s="272"/>
+      <c r="B67" s="257"/>
+      <c r="C67" s="257"/>
+      <c r="D67" s="257"/>
       <c r="E67" s="77" t="s">
         <v>130</v>
       </c>
@@ -10193,9 +10145,9 @@
       <c r="A68" s="90">
         <v>57</v>
       </c>
-      <c r="B68" s="272"/>
-      <c r="C68" s="272"/>
-      <c r="D68" s="272"/>
+      <c r="B68" s="257"/>
+      <c r="C68" s="257"/>
+      <c r="D68" s="257"/>
       <c r="E68" s="98" t="s">
         <v>132</v>
       </c>
@@ -10238,9 +10190,9 @@
       <c r="A69" s="90">
         <v>58</v>
       </c>
-      <c r="B69" s="272"/>
-      <c r="C69" s="272"/>
-      <c r="D69" s="272"/>
+      <c r="B69" s="257"/>
+      <c r="C69" s="257"/>
+      <c r="D69" s="257"/>
       <c r="E69" s="98" t="s">
         <v>134</v>
       </c>
@@ -10283,9 +10235,9 @@
       <c r="A70" s="90">
         <v>59</v>
       </c>
-      <c r="B70" s="272"/>
-      <c r="C70" s="272"/>
-      <c r="D70" s="272"/>
+      <c r="B70" s="257"/>
+      <c r="C70" s="257"/>
+      <c r="D70" s="257"/>
       <c r="E70" s="98" t="s">
         <v>136</v>
       </c>
@@ -10328,9 +10280,9 @@
       <c r="A71" s="90">
         <v>60</v>
       </c>
-      <c r="B71" s="272"/>
-      <c r="C71" s="272"/>
-      <c r="D71" s="272"/>
+      <c r="B71" s="257"/>
+      <c r="C71" s="257"/>
+      <c r="D71" s="257"/>
       <c r="E71" s="98" t="s">
         <v>139</v>
       </c>
@@ -10373,9 +10325,9 @@
       <c r="A72" s="90">
         <v>61</v>
       </c>
-      <c r="B72" s="272"/>
-      <c r="C72" s="272"/>
-      <c r="D72" s="272"/>
+      <c r="B72" s="257"/>
+      <c r="C72" s="257"/>
+      <c r="D72" s="257"/>
       <c r="E72" s="91" t="s">
         <v>141</v>
       </c>
@@ -10416,9 +10368,9 @@
     </row>
     <row r="73" spans="1:29" ht="30.75" customHeight="1" thickBot="1">
       <c r="A73" s="90"/>
-      <c r="B73" s="272"/>
-      <c r="C73" s="272"/>
-      <c r="D73" s="272"/>
+      <c r="B73" s="257"/>
+      <c r="C73" s="257"/>
+      <c r="D73" s="257"/>
       <c r="E73" s="91" t="s">
         <v>257</v>
       </c>
@@ -10434,7 +10386,7 @@
       <c r="I73" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="J73" s="319" t="s">
+      <c r="J73" s="252" t="s">
         <v>264</v>
       </c>
       <c r="K73" s="92"/>
@@ -10463,9 +10415,9 @@
       <c r="A74" s="90">
         <v>62</v>
       </c>
-      <c r="B74" s="272"/>
-      <c r="C74" s="273"/>
-      <c r="D74" s="273"/>
+      <c r="B74" s="257"/>
+      <c r="C74" s="258"/>
+      <c r="D74" s="258"/>
       <c r="E74" s="98" t="s">
         <v>254</v>
       </c>
@@ -10475,13 +10427,13 @@
       <c r="G74" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="H74" s="319" t="s">
+      <c r="H74" s="252" t="s">
         <v>256</v>
       </c>
-      <c r="I74" s="320" t="s">
+      <c r="I74" s="253" t="s">
         <v>258</v>
       </c>
-      <c r="J74" s="319" t="s">
+      <c r="J74" s="252" t="s">
         <v>229</v>
       </c>
       <c r="K74" s="92"/>
@@ -10508,9 +10460,9 @@
     </row>
     <row r="75" spans="1:29" ht="30.75" customHeight="1" thickBot="1">
       <c r="A75" s="90"/>
-      <c r="B75" s="272"/>
-      <c r="C75" s="322"/>
-      <c r="D75" s="321"/>
+      <c r="B75" s="257"/>
+      <c r="C75" s="255"/>
+      <c r="D75" s="254"/>
       <c r="E75" s="98" t="s">
         <v>265</v>
       </c>
@@ -10520,13 +10472,13 @@
       <c r="G75" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="H75" s="319" t="s">
+      <c r="H75" s="252" t="s">
         <v>268</v>
       </c>
-      <c r="I75" s="320" t="s">
+      <c r="I75" s="253" t="s">
         <v>269</v>
       </c>
-      <c r="J75" s="319" t="s">
+      <c r="J75" s="252" t="s">
         <v>229</v>
       </c>
       <c r="K75" s="92"/>
@@ -10553,9 +10505,9 @@
     </row>
     <row r="76" spans="1:29" ht="30.75" customHeight="1" thickBot="1">
       <c r="A76" s="90"/>
-      <c r="B76" s="272"/>
-      <c r="C76" s="322"/>
-      <c r="D76" s="321"/>
+      <c r="B76" s="257"/>
+      <c r="C76" s="255"/>
+      <c r="D76" s="254"/>
       <c r="E76" s="98" t="s">
         <v>270</v>
       </c>
@@ -10565,13 +10517,13 @@
       <c r="G76" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="H76" s="319">
+      <c r="H76" s="252">
         <v>123456</v>
       </c>
-      <c r="I76" s="320" t="s">
+      <c r="I76" s="253" t="s">
         <v>272</v>
       </c>
-      <c r="J76" s="319" t="s">
+      <c r="J76" s="252" t="s">
         <v>264</v>
       </c>
       <c r="K76" s="92"/>
@@ -10598,7 +10550,7 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="102"/>
-      <c r="B77" s="272"/>
+      <c r="B77" s="257"/>
       <c r="C77" s="115"/>
       <c r="D77" s="116"/>
       <c r="E77" s="117"/>
@@ -10629,9 +10581,9 @@
     </row>
     <row r="78" spans="1:29" ht="30" customHeight="1" thickBot="1">
       <c r="A78" s="90"/>
-      <c r="B78" s="272"/>
-      <c r="C78" s="300"/>
-      <c r="D78" s="301"/>
+      <c r="B78" s="257"/>
+      <c r="C78" s="293"/>
+      <c r="D78" s="294"/>
       <c r="E78" s="98"/>
       <c r="F78" s="92"/>
       <c r="G78" s="92"/>
@@ -10660,9 +10612,9 @@
     </row>
     <row r="79" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A79" s="90"/>
-      <c r="B79" s="272"/>
-      <c r="C79" s="272"/>
-      <c r="D79" s="272"/>
+      <c r="B79" s="257"/>
+      <c r="C79" s="257"/>
+      <c r="D79" s="257"/>
       <c r="E79" s="98"/>
       <c r="F79" s="92"/>
       <c r="G79" s="92"/>
@@ -10691,9 +10643,9 @@
     </row>
     <row r="80" spans="1:29" ht="26.25" customHeight="1" thickBot="1">
       <c r="A80" s="90"/>
-      <c r="B80" s="272"/>
-      <c r="C80" s="272"/>
-      <c r="D80" s="272"/>
+      <c r="B80" s="257"/>
+      <c r="C80" s="257"/>
+      <c r="D80" s="257"/>
       <c r="E80" s="92"/>
       <c r="F80" s="75"/>
       <c r="G80" s="92"/>
@@ -10722,9 +10674,9 @@
     </row>
     <row r="81" spans="1:29" ht="30" customHeight="1" thickBot="1">
       <c r="A81" s="90"/>
-      <c r="B81" s="272"/>
-      <c r="C81" s="272"/>
-      <c r="D81" s="273"/>
+      <c r="B81" s="257"/>
+      <c r="C81" s="257"/>
+      <c r="D81" s="258"/>
       <c r="E81" s="92"/>
       <c r="F81" s="92"/>
       <c r="G81" s="92"/>
@@ -10753,8 +10705,8 @@
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="90"/>
-      <c r="B82" s="272"/>
-      <c r="C82" s="273"/>
+      <c r="B82" s="257"/>
+      <c r="C82" s="258"/>
       <c r="D82" s="119"/>
       <c r="E82" s="120"/>
       <c r="F82" s="92"/>
@@ -10784,7 +10736,7 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
       <c r="A83" s="121"/>
-      <c r="B83" s="272"/>
+      <c r="B83" s="257"/>
       <c r="C83" s="122"/>
       <c r="D83" s="119"/>
       <c r="E83" s="120"/>
@@ -10815,7 +10767,7 @@
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1">
       <c r="A84" s="121"/>
-      <c r="B84" s="272"/>
+      <c r="B84" s="257"/>
       <c r="C84" s="122"/>
       <c r="D84" s="119"/>
       <c r="E84" s="123"/>
@@ -10846,7 +10798,7 @@
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1">
       <c r="A85" s="121"/>
-      <c r="B85" s="272"/>
+      <c r="B85" s="257"/>
       <c r="C85" s="122"/>
       <c r="D85" s="119"/>
       <c r="E85" s="123"/>
@@ -10877,7 +10829,7 @@
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1">
       <c r="A86" s="121"/>
-      <c r="B86" s="272"/>
+      <c r="B86" s="257"/>
       <c r="C86" s="122"/>
       <c r="D86" s="119"/>
       <c r="E86" s="123"/>
@@ -10908,7 +10860,7 @@
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1">
       <c r="A87" s="121"/>
-      <c r="B87" s="272"/>
+      <c r="B87" s="257"/>
       <c r="C87" s="122"/>
       <c r="D87" s="119"/>
       <c r="E87" s="123"/>
@@ -10939,7 +10891,7 @@
     </row>
     <row r="88" spans="1:29" ht="15.75" customHeight="1">
       <c r="A88" s="121"/>
-      <c r="B88" s="272"/>
+      <c r="B88" s="257"/>
       <c r="C88" s="122"/>
       <c r="D88" s="124"/>
       <c r="E88" s="123"/>
@@ -10970,9 +10922,9 @@
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
       <c r="A89" s="121"/>
-      <c r="B89" s="272"/>
+      <c r="B89" s="257"/>
       <c r="C89" s="122"/>
-      <c r="D89" s="302"/>
+      <c r="D89" s="295"/>
       <c r="E89" s="123"/>
       <c r="F89" s="75"/>
       <c r="G89" s="92"/>
@@ -11001,9 +10953,9 @@
     </row>
     <row r="90" spans="1:29" ht="15.75" customHeight="1">
       <c r="A90" s="121"/>
-      <c r="B90" s="272"/>
+      <c r="B90" s="257"/>
       <c r="C90" s="122"/>
-      <c r="D90" s="272"/>
+      <c r="D90" s="257"/>
       <c r="E90" s="123"/>
       <c r="F90" s="92"/>
       <c r="G90" s="92"/>
@@ -11032,9 +10984,9 @@
     </row>
     <row r="91" spans="1:29" ht="15.75" customHeight="1">
       <c r="A91" s="121"/>
-      <c r="B91" s="272"/>
+      <c r="B91" s="257"/>
       <c r="C91" s="122"/>
-      <c r="D91" s="272"/>
+      <c r="D91" s="257"/>
       <c r="E91" s="125"/>
       <c r="F91" s="62"/>
       <c r="G91" s="92"/>
@@ -11063,9 +11015,9 @@
     </row>
     <row r="92" spans="1:29" ht="15.75" customHeight="1">
       <c r="A92" s="121"/>
-      <c r="B92" s="272"/>
+      <c r="B92" s="257"/>
       <c r="C92" s="122"/>
-      <c r="D92" s="272"/>
+      <c r="D92" s="257"/>
       <c r="E92" s="125"/>
       <c r="F92" s="62"/>
       <c r="G92" s="92"/>
@@ -11094,9 +11046,9 @@
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1">
       <c r="A93" s="121"/>
-      <c r="B93" s="272"/>
+      <c r="B93" s="257"/>
       <c r="C93" s="122"/>
-      <c r="D93" s="273"/>
+      <c r="D93" s="258"/>
       <c r="E93" s="125"/>
       <c r="F93" s="62"/>
       <c r="G93" s="92"/>
@@ -11125,7 +11077,7 @@
     </row>
     <row r="94" spans="1:29" ht="15.75" customHeight="1">
       <c r="A94" s="121"/>
-      <c r="B94" s="272"/>
+      <c r="B94" s="257"/>
       <c r="C94" s="122"/>
       <c r="D94" s="126"/>
       <c r="E94" s="127"/>
@@ -11156,9 +11108,9 @@
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
       <c r="A95" s="121"/>
-      <c r="B95" s="272"/>
+      <c r="B95" s="257"/>
       <c r="C95" s="122"/>
-      <c r="D95" s="302"/>
+      <c r="D95" s="295"/>
       <c r="E95" s="120"/>
       <c r="F95" s="92"/>
       <c r="G95" s="92"/>
@@ -11187,9 +11139,9 @@
     </row>
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
       <c r="A96" s="121"/>
-      <c r="B96" s="272"/>
+      <c r="B96" s="257"/>
       <c r="C96" s="122"/>
-      <c r="D96" s="273"/>
+      <c r="D96" s="258"/>
       <c r="E96" s="120"/>
       <c r="F96" s="92"/>
       <c r="G96" s="92"/>
@@ -11218,7 +11170,7 @@
     </row>
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
       <c r="A97" s="121"/>
-      <c r="B97" s="272"/>
+      <c r="B97" s="257"/>
       <c r="C97" s="122"/>
       <c r="D97" s="128"/>
       <c r="E97" s="123"/>
@@ -11249,9 +11201,9 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
       <c r="A98" s="121"/>
-      <c r="B98" s="272"/>
+      <c r="B98" s="257"/>
       <c r="C98" s="122"/>
-      <c r="D98" s="303"/>
+      <c r="D98" s="296"/>
       <c r="E98" s="123"/>
       <c r="F98" s="92"/>
       <c r="G98" s="92"/>
@@ -11280,9 +11232,9 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
       <c r="A99" s="121"/>
-      <c r="B99" s="272"/>
+      <c r="B99" s="257"/>
       <c r="C99" s="122"/>
-      <c r="D99" s="272"/>
+      <c r="D99" s="257"/>
       <c r="E99" s="123"/>
       <c r="F99" s="92"/>
       <c r="G99" s="92"/>
@@ -11311,9 +11263,9 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
       <c r="A100" s="121"/>
-      <c r="B100" s="272"/>
+      <c r="B100" s="257"/>
       <c r="C100" s="122"/>
-      <c r="D100" s="272"/>
+      <c r="D100" s="257"/>
       <c r="E100" s="125"/>
       <c r="F100" s="62"/>
       <c r="G100" s="92"/>
@@ -11342,9 +11294,9 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
       <c r="A101" s="121"/>
-      <c r="B101" s="272"/>
+      <c r="B101" s="257"/>
       <c r="C101" s="122"/>
-      <c r="D101" s="272"/>
+      <c r="D101" s="257"/>
       <c r="E101" s="120"/>
       <c r="F101" s="92"/>
       <c r="G101" s="92"/>
@@ -11373,9 +11325,9 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1">
       <c r="A102" s="121"/>
-      <c r="B102" s="272"/>
+      <c r="B102" s="257"/>
       <c r="C102" s="122"/>
-      <c r="D102" s="272"/>
+      <c r="D102" s="257"/>
       <c r="E102" s="120"/>
       <c r="F102" s="92"/>
       <c r="G102" s="92"/>
@@ -11404,9 +11356,9 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1">
       <c r="A103" s="121"/>
-      <c r="B103" s="272"/>
+      <c r="B103" s="257"/>
       <c r="C103" s="122"/>
-      <c r="D103" s="272"/>
+      <c r="D103" s="257"/>
       <c r="E103" s="123"/>
       <c r="F103" s="92"/>
       <c r="G103" s="92"/>
@@ -11435,9 +11387,9 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1">
       <c r="A104" s="121"/>
-      <c r="B104" s="272"/>
+      <c r="B104" s="257"/>
       <c r="C104" s="122"/>
-      <c r="D104" s="272"/>
+      <c r="D104" s="257"/>
       <c r="E104" s="123"/>
       <c r="F104" s="92"/>
       <c r="G104" s="92"/>
@@ -11466,9 +11418,9 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1">
       <c r="A105" s="121"/>
-      <c r="B105" s="272"/>
+      <c r="B105" s="257"/>
       <c r="C105" s="122"/>
-      <c r="D105" s="272"/>
+      <c r="D105" s="257"/>
       <c r="E105" s="123"/>
       <c r="F105" s="92"/>
       <c r="G105" s="92"/>
@@ -11497,9 +11449,9 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1">
       <c r="A106" s="121"/>
-      <c r="B106" s="272"/>
+      <c r="B106" s="257"/>
       <c r="C106" s="122"/>
-      <c r="D106" s="272"/>
+      <c r="D106" s="257"/>
       <c r="E106" s="125"/>
       <c r="F106" s="62"/>
       <c r="G106" s="92"/>
@@ -11528,9 +11480,9 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
       <c r="A107" s="121"/>
-      <c r="B107" s="272"/>
+      <c r="B107" s="257"/>
       <c r="C107" s="122"/>
-      <c r="D107" s="272"/>
+      <c r="D107" s="257"/>
       <c r="E107" s="127"/>
       <c r="F107" s="97"/>
       <c r="G107" s="97"/>
@@ -11559,9 +11511,9 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1">
       <c r="A108" s="121"/>
-      <c r="B108" s="272"/>
+      <c r="B108" s="257"/>
       <c r="C108" s="122"/>
-      <c r="D108" s="273"/>
+      <c r="D108" s="258"/>
       <c r="E108" s="120"/>
       <c r="F108" s="92"/>
       <c r="G108" s="92"/>
@@ -11590,7 +11542,7 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1">
       <c r="A109" s="121"/>
-      <c r="B109" s="272"/>
+      <c r="B109" s="257"/>
       <c r="C109" s="122"/>
       <c r="D109" s="128"/>
       <c r="E109" s="120"/>
@@ -11621,9 +11573,9 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1">
       <c r="A110" s="121"/>
-      <c r="B110" s="272"/>
+      <c r="B110" s="257"/>
       <c r="C110" s="122"/>
-      <c r="D110" s="304"/>
+      <c r="D110" s="285"/>
       <c r="E110" s="123"/>
       <c r="F110" s="92"/>
       <c r="G110" s="92"/>
@@ -11652,9 +11604,9 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
       <c r="A111" s="121"/>
-      <c r="B111" s="272"/>
+      <c r="B111" s="257"/>
       <c r="C111" s="122"/>
-      <c r="D111" s="260"/>
+      <c r="D111" s="265"/>
       <c r="E111" s="123"/>
       <c r="F111" s="92"/>
       <c r="G111" s="92"/>
@@ -11683,9 +11635,9 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1">
       <c r="A112" s="121"/>
-      <c r="B112" s="272"/>
+      <c r="B112" s="257"/>
       <c r="C112" s="122"/>
-      <c r="D112" s="260"/>
+      <c r="D112" s="265"/>
       <c r="E112" s="123"/>
       <c r="F112" s="92"/>
       <c r="G112" s="92"/>
@@ -11714,9 +11666,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
       <c r="A113" s="121"/>
-      <c r="B113" s="272"/>
+      <c r="B113" s="257"/>
       <c r="C113" s="122"/>
-      <c r="D113" s="260"/>
+      <c r="D113" s="265"/>
       <c r="E113" s="125"/>
       <c r="F113" s="62"/>
       <c r="G113" s="92"/>
@@ -11745,9 +11697,9 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1">
       <c r="A114" s="130"/>
-      <c r="B114" s="272"/>
+      <c r="B114" s="257"/>
       <c r="C114" s="131"/>
-      <c r="D114" s="260"/>
+      <c r="D114" s="265"/>
       <c r="E114" s="132"/>
       <c r="F114" s="133"/>
       <c r="G114" s="133"/>
@@ -11776,9 +11728,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1">
       <c r="A115" s="136"/>
-      <c r="B115" s="272"/>
+      <c r="B115" s="257"/>
       <c r="C115" s="131"/>
-      <c r="D115" s="260"/>
+      <c r="D115" s="265"/>
       <c r="E115" s="137"/>
       <c r="F115" s="138"/>
       <c r="G115" s="139"/>
@@ -11807,9 +11759,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
       <c r="A116" s="136"/>
-      <c r="B116" s="272"/>
+      <c r="B116" s="257"/>
       <c r="C116" s="131"/>
-      <c r="D116" s="260"/>
+      <c r="D116" s="265"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144"/>
       <c r="G116" s="144"/>
@@ -11838,9 +11790,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
       <c r="A117" s="136"/>
-      <c r="B117" s="272"/>
+      <c r="B117" s="257"/>
       <c r="C117" s="131"/>
-      <c r="D117" s="260"/>
+      <c r="D117" s="265"/>
       <c r="E117" s="143"/>
       <c r="F117" s="144"/>
       <c r="G117" s="144"/>
@@ -11869,9 +11821,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
       <c r="A118" s="136"/>
-      <c r="B118" s="272"/>
+      <c r="B118" s="257"/>
       <c r="C118" s="131"/>
-      <c r="D118" s="260"/>
+      <c r="D118" s="265"/>
       <c r="E118" s="147"/>
       <c r="F118" s="144"/>
       <c r="G118" s="144"/>
@@ -11900,9 +11852,9 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="136"/>
-      <c r="B119" s="272"/>
+      <c r="B119" s="257"/>
       <c r="C119" s="131"/>
-      <c r="D119" s="260"/>
+      <c r="D119" s="265"/>
       <c r="E119" s="148"/>
       <c r="F119" s="138"/>
       <c r="G119" s="139"/>
@@ -11931,7 +11883,7 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="136"/>
-      <c r="B120" s="272"/>
+      <c r="B120" s="257"/>
       <c r="C120" s="131"/>
       <c r="D120" s="149"/>
       <c r="E120" s="137"/>
@@ -11962,9 +11914,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="136"/>
-      <c r="B121" s="272"/>
+      <c r="B121" s="257"/>
       <c r="C121" s="131"/>
-      <c r="D121" s="292"/>
+      <c r="D121" s="286"/>
       <c r="E121" s="150"/>
       <c r="F121" s="138"/>
       <c r="G121" s="139"/>
@@ -11993,9 +11945,9 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1">
       <c r="A122" s="136"/>
-      <c r="B122" s="272"/>
+      <c r="B122" s="257"/>
       <c r="C122" s="131"/>
-      <c r="D122" s="285"/>
+      <c r="D122" s="287"/>
       <c r="E122" s="152"/>
       <c r="F122" s="144"/>
       <c r="G122" s="144"/>
@@ -12024,7 +11976,7 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1">
       <c r="A123" s="136"/>
-      <c r="B123" s="272"/>
+      <c r="B123" s="257"/>
       <c r="C123" s="131"/>
       <c r="D123" s="9"/>
       <c r="E123" s="153"/>
@@ -12055,9 +12007,9 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1">
       <c r="A124" s="136"/>
-      <c r="B124" s="272"/>
+      <c r="B124" s="257"/>
       <c r="C124" s="131"/>
-      <c r="D124" s="305"/>
+      <c r="D124" s="288"/>
       <c r="E124" s="152"/>
       <c r="F124" s="144"/>
       <c r="G124" s="144"/>
@@ -12086,9 +12038,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
       <c r="A125" s="136"/>
-      <c r="B125" s="272"/>
+      <c r="B125" s="257"/>
       <c r="C125" s="131"/>
-      <c r="D125" s="285"/>
+      <c r="D125" s="287"/>
       <c r="E125" s="150"/>
       <c r="F125" s="144"/>
       <c r="G125" s="144"/>
@@ -12117,9 +12069,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
       <c r="A126" s="136"/>
-      <c r="B126" s="272"/>
+      <c r="B126" s="257"/>
       <c r="C126" s="131"/>
-      <c r="D126" s="285"/>
+      <c r="D126" s="287"/>
       <c r="E126" s="152"/>
       <c r="F126" s="144"/>
       <c r="G126" s="144"/>
@@ -12148,9 +12100,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1">
       <c r="A127" s="136"/>
-      <c r="B127" s="272"/>
+      <c r="B127" s="257"/>
       <c r="C127" s="131"/>
-      <c r="D127" s="285"/>
+      <c r="D127" s="287"/>
       <c r="E127" s="150"/>
       <c r="F127" s="138"/>
       <c r="G127" s="139"/>
@@ -12179,9 +12131,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1">
       <c r="A128" s="136"/>
-      <c r="B128" s="272"/>
+      <c r="B128" s="257"/>
       <c r="C128" s="131"/>
-      <c r="D128" s="285"/>
+      <c r="D128" s="287"/>
       <c r="E128" s="154"/>
       <c r="F128" s="155"/>
       <c r="G128" s="146"/>
@@ -12210,9 +12162,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1">
       <c r="A129" s="136"/>
-      <c r="B129" s="272"/>
+      <c r="B129" s="257"/>
       <c r="C129" s="131"/>
-      <c r="D129" s="285"/>
+      <c r="D129" s="287"/>
       <c r="E129" s="150"/>
       <c r="F129" s="156"/>
       <c r="G129" s="139"/>
@@ -12241,9 +12193,9 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1">
       <c r="A130" s="136"/>
-      <c r="B130" s="272"/>
+      <c r="B130" s="257"/>
       <c r="C130" s="131"/>
-      <c r="D130" s="288"/>
+      <c r="D130" s="289"/>
       <c r="E130" s="154"/>
       <c r="F130" s="157"/>
       <c r="G130" s="146"/>
@@ -12272,7 +12224,7 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1">
       <c r="A131" s="136"/>
-      <c r="B131" s="272"/>
+      <c r="B131" s="257"/>
       <c r="C131" s="131"/>
       <c r="D131" s="158"/>
       <c r="E131" s="154"/>
@@ -12303,9 +12255,9 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1">
       <c r="A132" s="136"/>
-      <c r="B132" s="272"/>
+      <c r="B132" s="257"/>
       <c r="C132" s="131"/>
-      <c r="D132" s="306"/>
+      <c r="D132" s="290"/>
       <c r="E132" s="159"/>
       <c r="F132" s="160"/>
       <c r="G132" s="146"/>
@@ -12334,9 +12286,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1">
       <c r="A133" s="136"/>
-      <c r="B133" s="272"/>
+      <c r="B133" s="257"/>
       <c r="C133" s="131"/>
-      <c r="D133" s="260"/>
+      <c r="D133" s="265"/>
       <c r="E133" s="154"/>
       <c r="F133" s="160"/>
       <c r="G133" s="146"/>
@@ -12365,9 +12317,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1">
       <c r="A134" s="136"/>
-      <c r="B134" s="272"/>
+      <c r="B134" s="257"/>
       <c r="C134" s="131"/>
-      <c r="D134" s="260"/>
+      <c r="D134" s="265"/>
       <c r="E134" s="161"/>
       <c r="F134" s="151"/>
       <c r="G134" s="151"/>
@@ -12396,9 +12348,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1">
       <c r="A135" s="136"/>
-      <c r="B135" s="272"/>
+      <c r="B135" s="257"/>
       <c r="C135" s="131"/>
-      <c r="D135" s="260"/>
+      <c r="D135" s="265"/>
       <c r="E135" s="161"/>
       <c r="F135" s="151"/>
       <c r="G135" s="151"/>
@@ -12427,9 +12379,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1">
       <c r="A136" s="136"/>
-      <c r="B136" s="272"/>
+      <c r="B136" s="257"/>
       <c r="C136" s="131"/>
-      <c r="D136" s="260"/>
+      <c r="D136" s="265"/>
       <c r="E136" s="161"/>
       <c r="F136" s="151"/>
       <c r="G136" s="151"/>
@@ -12458,9 +12410,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1">
       <c r="A137" s="136"/>
-      <c r="B137" s="272"/>
+      <c r="B137" s="257"/>
       <c r="C137" s="131"/>
-      <c r="D137" s="260"/>
+      <c r="D137" s="265"/>
       <c r="E137" s="161"/>
       <c r="F137" s="151"/>
       <c r="G137" s="151"/>
@@ -12489,9 +12441,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1">
       <c r="A138" s="136"/>
-      <c r="B138" s="272"/>
+      <c r="B138" s="257"/>
       <c r="C138" s="131"/>
-      <c r="D138" s="260"/>
+      <c r="D138" s="265"/>
       <c r="E138" s="161"/>
       <c r="F138" s="151"/>
       <c r="G138" s="151"/>
@@ -12520,9 +12472,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1">
       <c r="A139" s="136"/>
-      <c r="B139" s="272"/>
+      <c r="B139" s="257"/>
       <c r="C139" s="131"/>
-      <c r="D139" s="260"/>
+      <c r="D139" s="265"/>
       <c r="E139" s="161"/>
       <c r="F139" s="151"/>
       <c r="G139" s="151"/>
@@ -12551,9 +12503,9 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1">
       <c r="A140" s="136"/>
-      <c r="B140" s="272"/>
+      <c r="B140" s="257"/>
       <c r="C140" s="131"/>
-      <c r="D140" s="307"/>
+      <c r="D140" s="291"/>
       <c r="E140" s="161"/>
       <c r="F140" s="151"/>
       <c r="G140" s="151"/>
@@ -12582,7 +12534,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1">
       <c r="A141" s="136"/>
-      <c r="B141" s="272"/>
+      <c r="B141" s="257"/>
       <c r="C141" s="162"/>
       <c r="D141" s="163"/>
       <c r="E141" s="161"/>
@@ -12613,7 +12565,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1">
       <c r="A142" s="136"/>
-      <c r="B142" s="272"/>
+      <c r="B142" s="257"/>
       <c r="C142" s="164"/>
       <c r="D142" s="163"/>
       <c r="E142" s="161"/>
@@ -12644,7 +12596,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1">
       <c r="A143" s="136"/>
-      <c r="B143" s="272"/>
+      <c r="B143" s="257"/>
       <c r="C143" s="164"/>
       <c r="D143" s="165"/>
       <c r="E143" s="161"/>
@@ -12675,9 +12627,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1">
       <c r="A144" s="136"/>
-      <c r="B144" s="272"/>
+      <c r="B144" s="257"/>
       <c r="C144" s="164"/>
-      <c r="D144" s="308"/>
+      <c r="D144" s="292"/>
       <c r="E144" s="167"/>
       <c r="F144" s="151"/>
       <c r="G144" s="151"/>
@@ -12706,9 +12658,9 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
       <c r="A145" s="136"/>
-      <c r="B145" s="272"/>
+      <c r="B145" s="257"/>
       <c r="C145" s="164"/>
-      <c r="D145" s="288"/>
+      <c r="D145" s="289"/>
       <c r="E145" s="167"/>
       <c r="F145" s="151"/>
       <c r="G145" s="151"/>
@@ -12737,7 +12689,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1">
       <c r="A146" s="136"/>
-      <c r="B146" s="272"/>
+      <c r="B146" s="257"/>
       <c r="C146" s="164"/>
       <c r="D146" s="168"/>
       <c r="E146" s="161"/>
@@ -12768,7 +12720,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
       <c r="A147" s="136"/>
-      <c r="B147" s="272"/>
+      <c r="B147" s="257"/>
       <c r="C147" s="164"/>
       <c r="D147" s="169"/>
       <c r="E147" s="161"/>
@@ -12799,7 +12751,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1">
       <c r="A148" s="136"/>
-      <c r="B148" s="272"/>
+      <c r="B148" s="257"/>
       <c r="C148" s="164"/>
       <c r="D148" s="169"/>
       <c r="E148" s="170"/>
@@ -12830,7 +12782,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1">
       <c r="A149" s="136"/>
-      <c r="B149" s="272"/>
+      <c r="B149" s="257"/>
       <c r="C149" s="164"/>
       <c r="D149" s="169"/>
       <c r="E149" s="161"/>
@@ -12861,7 +12813,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1">
       <c r="A150" s="136"/>
-      <c r="B150" s="272"/>
+      <c r="B150" s="257"/>
       <c r="C150" s="164"/>
       <c r="D150" s="169"/>
       <c r="E150" s="161"/>
@@ -12892,7 +12844,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1">
       <c r="A151" s="136"/>
-      <c r="B151" s="272"/>
+      <c r="B151" s="257"/>
       <c r="C151" s="164"/>
       <c r="D151" s="169"/>
       <c r="E151" s="161"/>
@@ -12923,7 +12875,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1">
       <c r="A152" s="136"/>
-      <c r="B152" s="272"/>
+      <c r="B152" s="257"/>
       <c r="C152" s="164"/>
       <c r="D152" s="169"/>
       <c r="E152" s="161"/>
@@ -12954,7 +12906,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1">
       <c r="A153" s="136"/>
-      <c r="B153" s="272"/>
+      <c r="B153" s="257"/>
       <c r="C153" s="164"/>
       <c r="D153" s="169"/>
       <c r="E153" s="170"/>
@@ -12985,7 +12937,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1">
       <c r="A154" s="136"/>
-      <c r="B154" s="272"/>
+      <c r="B154" s="257"/>
       <c r="C154" s="164"/>
       <c r="D154" s="169"/>
       <c r="E154" s="170"/>
@@ -13016,7 +12968,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1">
       <c r="A155" s="136"/>
-      <c r="B155" s="272"/>
+      <c r="B155" s="257"/>
       <c r="C155" s="164"/>
       <c r="D155" s="169"/>
       <c r="E155" s="170"/>
@@ -13047,7 +12999,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1">
       <c r="A156" s="136"/>
-      <c r="B156" s="272"/>
+      <c r="B156" s="257"/>
       <c r="C156" s="164"/>
       <c r="D156" s="169"/>
       <c r="E156" s="161"/>
@@ -13078,7 +13030,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1">
       <c r="A157" s="136"/>
-      <c r="B157" s="272"/>
+      <c r="B157" s="257"/>
       <c r="C157" s="164"/>
       <c r="D157" s="169"/>
       <c r="E157" s="161"/>
@@ -13109,7 +13061,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1">
       <c r="A158" s="136"/>
-      <c r="B158" s="272"/>
+      <c r="B158" s="257"/>
       <c r="C158" s="164"/>
       <c r="D158" s="169"/>
       <c r="E158" s="161"/>
@@ -13140,7 +13092,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1">
       <c r="A159" s="136"/>
-      <c r="B159" s="272"/>
+      <c r="B159" s="257"/>
       <c r="C159" s="164"/>
       <c r="D159" s="169"/>
       <c r="E159" s="161"/>
@@ -13171,7 +13123,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1">
       <c r="A160" s="136"/>
-      <c r="B160" s="272"/>
+      <c r="B160" s="257"/>
       <c r="C160" s="164"/>
       <c r="D160" s="169"/>
       <c r="E160" s="161"/>
@@ -13202,7 +13154,7 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1">
       <c r="A161" s="136"/>
-      <c r="B161" s="272"/>
+      <c r="B161" s="257"/>
       <c r="C161" s="164"/>
       <c r="D161" s="169"/>
       <c r="E161" s="161"/>
@@ -13233,7 +13185,7 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1">
       <c r="A162" s="175"/>
-      <c r="B162" s="272"/>
+      <c r="B162" s="257"/>
       <c r="C162" s="164"/>
       <c r="D162" s="176"/>
       <c r="E162" s="177"/>
@@ -13264,7 +13216,7 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1">
       <c r="A163" s="175"/>
-      <c r="B163" s="272"/>
+      <c r="B163" s="257"/>
       <c r="C163" s="164"/>
       <c r="D163" s="178"/>
       <c r="E163" s="161"/>
@@ -13295,7 +13247,7 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1">
       <c r="A164" s="175"/>
-      <c r="B164" s="272"/>
+      <c r="B164" s="257"/>
       <c r="C164" s="164"/>
       <c r="D164" s="178"/>
       <c r="E164" s="161"/>
@@ -13326,7 +13278,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1">
       <c r="A165" s="175"/>
-      <c r="B165" s="272"/>
+      <c r="B165" s="257"/>
       <c r="C165" s="164"/>
       <c r="D165" s="178"/>
       <c r="E165" s="179"/>
@@ -13357,7 +13309,7 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1">
       <c r="A166" s="175"/>
-      <c r="B166" s="272"/>
+      <c r="B166" s="257"/>
       <c r="C166" s="164"/>
       <c r="D166" s="178"/>
       <c r="E166" s="180"/>
@@ -13388,7 +13340,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1">
       <c r="A167" s="175"/>
-      <c r="B167" s="272"/>
+      <c r="B167" s="257"/>
       <c r="C167" s="164"/>
       <c r="D167" s="178"/>
       <c r="E167" s="180"/>
@@ -13419,7 +13371,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1">
       <c r="A168" s="175"/>
-      <c r="B168" s="272"/>
+      <c r="B168" s="257"/>
       <c r="C168" s="164"/>
       <c r="D168" s="178"/>
       <c r="E168" s="180"/>
@@ -13450,7 +13402,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1">
       <c r="A169" s="175"/>
-      <c r="B169" s="272"/>
+      <c r="B169" s="257"/>
       <c r="C169" s="164"/>
       <c r="D169" s="178"/>
       <c r="E169" s="180"/>
@@ -13481,7 +13433,7 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1">
       <c r="A170" s="175"/>
-      <c r="B170" s="272"/>
+      <c r="B170" s="257"/>
       <c r="C170" s="164"/>
       <c r="D170" s="178"/>
       <c r="E170" s="161"/>
@@ -13512,7 +13464,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1">
       <c r="A171" s="175"/>
-      <c r="B171" s="272"/>
+      <c r="B171" s="257"/>
       <c r="C171" s="164"/>
       <c r="D171" s="178"/>
       <c r="E171" s="161"/>
@@ -13543,7 +13495,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1">
       <c r="A172" s="175"/>
-      <c r="B172" s="272"/>
+      <c r="B172" s="257"/>
       <c r="C172" s="164"/>
       <c r="D172" s="178"/>
       <c r="E172" s="161"/>
@@ -13574,7 +13526,7 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1">
       <c r="A173" s="175"/>
-      <c r="B173" s="272"/>
+      <c r="B173" s="257"/>
       <c r="C173" s="164"/>
       <c r="D173" s="178"/>
       <c r="E173" s="161"/>
@@ -13605,7 +13557,7 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1">
       <c r="A174" s="175"/>
-      <c r="B174" s="272"/>
+      <c r="B174" s="257"/>
       <c r="C174" s="164"/>
       <c r="D174" s="178"/>
       <c r="E174" s="177"/>
@@ -13636,7 +13588,7 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1">
       <c r="A175" s="175"/>
-      <c r="B175" s="272"/>
+      <c r="B175" s="257"/>
       <c r="C175" s="164"/>
       <c r="D175" s="181"/>
       <c r="E175" s="182"/>
@@ -13667,7 +13619,7 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1">
       <c r="A176" s="175"/>
-      <c r="B176" s="272"/>
+      <c r="B176" s="257"/>
       <c r="C176" s="164"/>
       <c r="D176" s="183"/>
       <c r="E176" s="177"/>
@@ -13698,9 +13650,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1">
       <c r="A177" s="175"/>
-      <c r="B177" s="272"/>
+      <c r="B177" s="257"/>
       <c r="C177" s="164"/>
-      <c r="D177" s="284"/>
+      <c r="D177" s="310"/>
       <c r="E177" s="161"/>
       <c r="F177" s="151"/>
       <c r="G177" s="151"/>
@@ -13709,7 +13661,7 @@
       <c r="J177" s="151"/>
       <c r="K177" s="151"/>
       <c r="L177" s="142"/>
-      <c r="M177" s="287"/>
+      <c r="M177" s="304"/>
       <c r="N177" s="135"/>
       <c r="O177" s="135"/>
       <c r="P177" s="135"/>
@@ -13729,9 +13681,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1">
       <c r="A178" s="136"/>
-      <c r="B178" s="272"/>
+      <c r="B178" s="257"/>
       <c r="C178" s="164"/>
-      <c r="D178" s="285"/>
+      <c r="D178" s="287"/>
       <c r="E178" s="161"/>
       <c r="F178" s="151"/>
       <c r="G178" s="151"/>
@@ -13740,7 +13692,7 @@
       <c r="J178" s="151"/>
       <c r="K178" s="151"/>
       <c r="L178" s="142"/>
-      <c r="M178" s="285"/>
+      <c r="M178" s="287"/>
       <c r="N178" s="135"/>
       <c r="O178" s="135"/>
       <c r="P178" s="135"/>
@@ -13760,9 +13712,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1">
       <c r="A179" s="136"/>
-      <c r="B179" s="272"/>
+      <c r="B179" s="257"/>
       <c r="C179" s="164"/>
-      <c r="D179" s="285"/>
+      <c r="D179" s="287"/>
       <c r="E179" s="179"/>
       <c r="F179" s="151"/>
       <c r="G179" s="151"/>
@@ -13771,7 +13723,7 @@
       <c r="J179" s="151"/>
       <c r="K179" s="151"/>
       <c r="L179" s="142"/>
-      <c r="M179" s="285"/>
+      <c r="M179" s="287"/>
       <c r="N179" s="135"/>
       <c r="O179" s="135"/>
       <c r="P179" s="135"/>
@@ -13791,9 +13743,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1">
       <c r="A180" s="136"/>
-      <c r="B180" s="272"/>
+      <c r="B180" s="257"/>
       <c r="C180" s="164"/>
-      <c r="D180" s="285"/>
+      <c r="D180" s="287"/>
       <c r="E180" s="180"/>
       <c r="F180" s="151"/>
       <c r="G180" s="151"/>
@@ -13802,7 +13754,7 @@
       <c r="J180" s="151"/>
       <c r="K180" s="151"/>
       <c r="L180" s="142"/>
-      <c r="M180" s="285"/>
+      <c r="M180" s="287"/>
       <c r="N180" s="135"/>
       <c r="O180" s="135"/>
       <c r="P180" s="135"/>
@@ -13822,9 +13774,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1">
       <c r="A181" s="136"/>
-      <c r="B181" s="272"/>
+      <c r="B181" s="257"/>
       <c r="C181" s="164"/>
-      <c r="D181" s="285"/>
+      <c r="D181" s="287"/>
       <c r="E181" s="180"/>
       <c r="F181" s="151"/>
       <c r="G181" s="151"/>
@@ -13833,7 +13785,7 @@
       <c r="J181" s="151"/>
       <c r="K181" s="151"/>
       <c r="L181" s="142"/>
-      <c r="M181" s="285"/>
+      <c r="M181" s="287"/>
       <c r="N181" s="135"/>
       <c r="O181" s="135"/>
       <c r="P181" s="135"/>
@@ -13853,9 +13805,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1">
       <c r="A182" s="136"/>
-      <c r="B182" s="272"/>
+      <c r="B182" s="257"/>
       <c r="C182" s="164"/>
-      <c r="D182" s="285"/>
+      <c r="D182" s="287"/>
       <c r="E182" s="180"/>
       <c r="F182" s="151"/>
       <c r="G182" s="151"/>
@@ -13864,7 +13816,7 @@
       <c r="J182" s="151"/>
       <c r="K182" s="151"/>
       <c r="L182" s="142"/>
-      <c r="M182" s="285"/>
+      <c r="M182" s="287"/>
       <c r="N182" s="135"/>
       <c r="O182" s="135"/>
       <c r="P182" s="135"/>
@@ -13884,9 +13836,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1">
       <c r="A183" s="136"/>
-      <c r="B183" s="272"/>
+      <c r="B183" s="257"/>
       <c r="C183" s="164"/>
-      <c r="D183" s="285"/>
+      <c r="D183" s="287"/>
       <c r="E183" s="180"/>
       <c r="F183" s="151"/>
       <c r="G183" s="151"/>
@@ -13895,7 +13847,7 @@
       <c r="J183" s="151"/>
       <c r="K183" s="151"/>
       <c r="L183" s="142"/>
-      <c r="M183" s="285"/>
+      <c r="M183" s="287"/>
       <c r="N183" s="135"/>
       <c r="O183" s="135"/>
       <c r="P183" s="135"/>
@@ -13915,9 +13867,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1">
       <c r="A184" s="136"/>
-      <c r="B184" s="272"/>
+      <c r="B184" s="257"/>
       <c r="C184" s="164"/>
-      <c r="D184" s="285"/>
+      <c r="D184" s="287"/>
       <c r="E184" s="161"/>
       <c r="F184" s="151"/>
       <c r="G184" s="151"/>
@@ -13926,7 +13878,7 @@
       <c r="J184" s="151"/>
       <c r="K184" s="151"/>
       <c r="L184" s="142"/>
-      <c r="M184" s="288"/>
+      <c r="M184" s="289"/>
       <c r="N184" s="135"/>
       <c r="O184" s="135"/>
       <c r="P184" s="135"/>
@@ -13946,9 +13898,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1">
       <c r="A185" s="136"/>
-      <c r="B185" s="272"/>
+      <c r="B185" s="257"/>
       <c r="C185" s="164"/>
-      <c r="D185" s="285"/>
+      <c r="D185" s="287"/>
       <c r="E185" s="161"/>
       <c r="F185" s="151"/>
       <c r="G185" s="151"/>
@@ -13977,9 +13929,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1">
       <c r="A186" s="136"/>
-      <c r="B186" s="272"/>
+      <c r="B186" s="257"/>
       <c r="C186" s="164"/>
-      <c r="D186" s="285"/>
+      <c r="D186" s="287"/>
       <c r="E186" s="161"/>
       <c r="F186" s="151"/>
       <c r="G186" s="151"/>
@@ -14008,9 +13960,9 @@
     </row>
     <row r="187" spans="1:29" ht="15.75" customHeight="1">
       <c r="A187" s="136"/>
-      <c r="B187" s="273"/>
+      <c r="B187" s="258"/>
       <c r="C187" s="164"/>
-      <c r="D187" s="286"/>
+      <c r="D187" s="311"/>
       <c r="E187" s="161"/>
       <c r="F187" s="151"/>
       <c r="G187" s="151"/>
@@ -14074,7 +14026,7 @@
       <c r="C189" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="D189" s="289"/>
+      <c r="D189" s="303"/>
       <c r="E189" s="161"/>
       <c r="F189" s="151"/>
       <c r="G189" s="174"/>
@@ -14105,7 +14057,7 @@
       <c r="A190" s="185"/>
       <c r="B190" s="183"/>
       <c r="C190" s="190"/>
-      <c r="D190" s="285"/>
+      <c r="D190" s="287"/>
       <c r="E190" s="161"/>
       <c r="F190" s="151"/>
       <c r="G190" s="174"/>
@@ -14136,7 +14088,7 @@
       <c r="A191" s="185"/>
       <c r="B191" s="183"/>
       <c r="C191" s="190"/>
-      <c r="D191" s="285"/>
+      <c r="D191" s="287"/>
       <c r="E191" s="161"/>
       <c r="F191" s="151"/>
       <c r="G191" s="174"/>
@@ -14167,7 +14119,7 @@
       <c r="A192" s="185"/>
       <c r="B192" s="183"/>
       <c r="C192" s="183"/>
-      <c r="D192" s="285"/>
+      <c r="D192" s="287"/>
       <c r="E192" s="170"/>
       <c r="F192" s="151"/>
       <c r="G192" s="174"/>
@@ -14198,7 +14150,7 @@
       <c r="A193" s="185"/>
       <c r="B193" s="188"/>
       <c r="C193" s="183"/>
-      <c r="D193" s="285"/>
+      <c r="D193" s="287"/>
       <c r="E193" s="170"/>
       <c r="F193" s="151"/>
       <c r="G193" s="174"/>
@@ -14229,7 +14181,7 @@
       <c r="A194" s="185"/>
       <c r="B194" s="188"/>
       <c r="C194" s="183"/>
-      <c r="D194" s="285"/>
+      <c r="D194" s="287"/>
       <c r="E194" s="170"/>
       <c r="F194" s="151"/>
       <c r="G194" s="174"/>
@@ -14260,7 +14212,7 @@
       <c r="A195" s="185"/>
       <c r="B195" s="188"/>
       <c r="C195" s="183"/>
-      <c r="D195" s="285"/>
+      <c r="D195" s="287"/>
       <c r="E195" s="161"/>
       <c r="F195" s="151"/>
       <c r="G195" s="174"/>
@@ -14291,7 +14243,7 @@
       <c r="A196" s="185"/>
       <c r="B196" s="188"/>
       <c r="C196" s="183"/>
-      <c r="D196" s="285"/>
+      <c r="D196" s="287"/>
       <c r="E196" s="161"/>
       <c r="F196" s="151"/>
       <c r="G196" s="174"/>
@@ -14322,7 +14274,7 @@
       <c r="A197" s="185"/>
       <c r="B197" s="188"/>
       <c r="C197" s="188"/>
-      <c r="D197" s="288"/>
+      <c r="D197" s="289"/>
       <c r="E197" s="161"/>
       <c r="F197" s="151"/>
       <c r="G197" s="174"/>
@@ -15662,8 +15614,8 @@
       <c r="H240" s="209"/>
       <c r="I240" s="209"/>
       <c r="J240" s="209"/>
-      <c r="K240" s="290"/>
-      <c r="L240" s="287"/>
+      <c r="K240" s="299"/>
+      <c r="L240" s="304"/>
       <c r="M240" s="204"/>
       <c r="N240" s="135"/>
       <c r="O240" s="135"/>
@@ -15693,8 +15645,8 @@
       <c r="H241" s="211"/>
       <c r="I241" s="211"/>
       <c r="J241" s="211"/>
-      <c r="K241" s="285"/>
-      <c r="L241" s="285"/>
+      <c r="K241" s="287"/>
+      <c r="L241" s="287"/>
       <c r="M241" s="204"/>
       <c r="N241" s="135"/>
       <c r="O241" s="135"/>
@@ -15724,8 +15676,8 @@
       <c r="H242" s="133"/>
       <c r="I242" s="133"/>
       <c r="J242" s="133"/>
-      <c r="K242" s="288"/>
-      <c r="L242" s="288"/>
+      <c r="K242" s="289"/>
+      <c r="L242" s="289"/>
       <c r="M242" s="204"/>
       <c r="N242" s="135"/>
       <c r="O242" s="135"/>
@@ -15933,9 +15885,9 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1">
       <c r="A249" s="185"/>
       <c r="B249" s="197"/>
-      <c r="C249" s="291"/>
+      <c r="C249" s="300"/>
       <c r="D249" s="183"/>
-      <c r="E249" s="292"/>
+      <c r="E249" s="286"/>
       <c r="F249" s="144"/>
       <c r="G249" s="144"/>
       <c r="H249" s="144"/>
@@ -15964,9 +15916,9 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1">
       <c r="A250" s="185"/>
       <c r="B250" s="197"/>
-      <c r="C250" s="285"/>
+      <c r="C250" s="287"/>
       <c r="D250" s="183"/>
-      <c r="E250" s="285"/>
+      <c r="E250" s="287"/>
       <c r="F250" s="144"/>
       <c r="G250" s="144"/>
       <c r="H250" s="144"/>
@@ -15995,9 +15947,9 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1">
       <c r="A251" s="185"/>
       <c r="B251" s="197"/>
-      <c r="C251" s="285"/>
+      <c r="C251" s="287"/>
       <c r="D251" s="183"/>
-      <c r="E251" s="288"/>
+      <c r="E251" s="289"/>
       <c r="F251" s="144"/>
       <c r="G251" s="144"/>
       <c r="H251" s="144"/>
@@ -16026,7 +15978,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="185"/>
       <c r="B252" s="197"/>
-      <c r="C252" s="285"/>
+      <c r="C252" s="287"/>
       <c r="D252" s="183"/>
       <c r="E252" s="152"/>
       <c r="F252" s="144"/>
@@ -16057,7 +16009,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="185"/>
       <c r="B253" s="197"/>
-      <c r="C253" s="285"/>
+      <c r="C253" s="287"/>
       <c r="D253" s="183"/>
       <c r="E253" s="152"/>
       <c r="F253" s="144"/>
@@ -16088,7 +16040,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
       <c r="A254" s="185"/>
       <c r="B254" s="197"/>
-      <c r="C254" s="285"/>
+      <c r="C254" s="287"/>
       <c r="D254" s="183"/>
       <c r="E254" s="152"/>
       <c r="F254" s="207"/>
@@ -16119,7 +16071,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1">
       <c r="A255" s="185"/>
       <c r="B255" s="197"/>
-      <c r="C255" s="288"/>
+      <c r="C255" s="289"/>
       <c r="D255" s="183"/>
       <c r="E255" s="152"/>
       <c r="F255" s="144"/>
@@ -16150,7 +16102,7 @@
     <row r="256" spans="1:29" ht="15.75" customHeight="1">
       <c r="A256" s="185"/>
       <c r="B256" s="197"/>
-      <c r="C256" s="293"/>
+      <c r="C256" s="298"/>
       <c r="D256" s="195"/>
       <c r="E256" s="152"/>
       <c r="F256" s="207"/>
@@ -16181,7 +16133,7 @@
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
       <c r="A257" s="185"/>
       <c r="B257" s="197"/>
-      <c r="C257" s="288"/>
+      <c r="C257" s="289"/>
       <c r="D257" s="215"/>
       <c r="E257" s="152"/>
       <c r="F257" s="207"/>
@@ -16243,7 +16195,7 @@
     <row r="259" spans="1:29" ht="30" customHeight="1">
       <c r="A259" s="185"/>
       <c r="B259" s="197"/>
-      <c r="C259" s="293"/>
+      <c r="C259" s="298"/>
       <c r="D259" s="195"/>
       <c r="E259" s="152"/>
       <c r="F259" s="144"/>
@@ -16274,7 +16226,7 @@
     <row r="260" spans="1:29" ht="15.75" customHeight="1">
       <c r="A260" s="185"/>
       <c r="B260" s="197"/>
-      <c r="C260" s="285"/>
+      <c r="C260" s="287"/>
       <c r="D260" s="196"/>
       <c r="E260" s="152"/>
       <c r="F260" s="144"/>
@@ -16305,7 +16257,7 @@
     <row r="261" spans="1:29" ht="15.75" customHeight="1">
       <c r="A261" s="185"/>
       <c r="B261" s="197"/>
-      <c r="C261" s="285"/>
+      <c r="C261" s="287"/>
       <c r="D261" s="196"/>
       <c r="E261" s="152"/>
       <c r="F261" s="144"/>
@@ -16336,7 +16288,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1">
       <c r="A262" s="185"/>
       <c r="B262" s="197"/>
-      <c r="C262" s="285"/>
+      <c r="C262" s="287"/>
       <c r="D262" s="196"/>
       <c r="E262" s="152"/>
       <c r="F262" s="207"/>
@@ -16367,7 +16319,7 @@
     <row r="263" spans="1:29" ht="15.75" customHeight="1">
       <c r="A263" s="185"/>
       <c r="B263" s="197"/>
-      <c r="C263" s="288"/>
+      <c r="C263" s="289"/>
       <c r="D263" s="196"/>
       <c r="E263" s="217"/>
       <c r="F263" s="144"/>
@@ -16747,7 +16699,7 @@
       <c r="H275" s="207"/>
       <c r="I275" s="207"/>
       <c r="J275" s="207"/>
-      <c r="K275" s="295"/>
+      <c r="K275" s="297"/>
       <c r="L275" s="142"/>
       <c r="M275" s="172"/>
       <c r="N275" s="135"/>
@@ -16778,7 +16730,7 @@
       <c r="H276" s="207"/>
       <c r="I276" s="207"/>
       <c r="J276" s="207"/>
-      <c r="K276" s="288"/>
+      <c r="K276" s="289"/>
       <c r="L276" s="142"/>
       <c r="M276" s="172"/>
       <c r="N276" s="135"/>
@@ -16863,7 +16815,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="185"/>
       <c r="B279" s="197"/>
-      <c r="C279" s="293"/>
+      <c r="C279" s="298"/>
       <c r="D279" s="195"/>
       <c r="E279" s="152"/>
       <c r="F279" s="207"/>
@@ -16871,7 +16823,7 @@
       <c r="H279" s="207"/>
       <c r="I279" s="207"/>
       <c r="J279" s="207"/>
-      <c r="K279" s="290"/>
+      <c r="K279" s="299"/>
       <c r="L279" s="142"/>
       <c r="M279" s="172"/>
       <c r="N279" s="135"/>
@@ -16894,7 +16846,7 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1">
       <c r="A280" s="185"/>
       <c r="B280" s="197"/>
-      <c r="C280" s="288"/>
+      <c r="C280" s="289"/>
       <c r="D280" s="215"/>
       <c r="E280" s="152"/>
       <c r="F280" s="207"/>
@@ -16902,7 +16854,7 @@
       <c r="H280" s="207"/>
       <c r="I280" s="207"/>
       <c r="J280" s="207"/>
-      <c r="K280" s="288"/>
+      <c r="K280" s="289"/>
       <c r="L280" s="142"/>
       <c r="M280" s="172"/>
       <c r="N280" s="135"/>
@@ -16925,7 +16877,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="185"/>
       <c r="B281" s="197"/>
-      <c r="C281" s="291"/>
+      <c r="C281" s="300"/>
       <c r="D281" s="208"/>
       <c r="E281" s="170"/>
       <c r="F281" s="151"/>
@@ -16956,7 +16908,7 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="185"/>
       <c r="B282" s="197"/>
-      <c r="C282" s="288"/>
+      <c r="C282" s="289"/>
       <c r="D282" s="168"/>
       <c r="E282" s="170"/>
       <c r="F282" s="151"/>
@@ -17018,7 +16970,7 @@
     <row r="284" spans="1:29" ht="15.75" customHeight="1">
       <c r="A284" s="185"/>
       <c r="B284" s="197"/>
-      <c r="C284" s="293"/>
+      <c r="C284" s="298"/>
       <c r="D284" s="195"/>
       <c r="E284" s="170"/>
       <c r="F284" s="151"/>
@@ -17049,7 +17001,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1">
       <c r="A285" s="185"/>
       <c r="B285" s="197"/>
-      <c r="C285" s="285"/>
+      <c r="C285" s="287"/>
       <c r="D285" s="196"/>
       <c r="E285" s="170"/>
       <c r="F285" s="151"/>
@@ -17080,7 +17032,7 @@
     <row r="286" spans="1:29" ht="15.75" customHeight="1">
       <c r="A286" s="185"/>
       <c r="B286" s="197"/>
-      <c r="C286" s="288"/>
+      <c r="C286" s="289"/>
       <c r="D286" s="215"/>
       <c r="E286" s="170"/>
       <c r="F286" s="151"/>
@@ -17265,10 +17217,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
       <c r="A292" s="192"/>
-      <c r="B292" s="296"/>
-      <c r="C292" s="291"/>
+      <c r="B292" s="301"/>
+      <c r="C292" s="300"/>
       <c r="D292" s="183"/>
-      <c r="E292" s="291"/>
+      <c r="E292" s="300"/>
       <c r="F292" s="144"/>
       <c r="G292" s="144"/>
       <c r="H292" s="144"/>
@@ -17296,10 +17248,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
       <c r="A293" s="192"/>
-      <c r="B293" s="285"/>
-      <c r="C293" s="285"/>
+      <c r="B293" s="287"/>
+      <c r="C293" s="287"/>
       <c r="D293" s="183"/>
-      <c r="E293" s="285"/>
+      <c r="E293" s="287"/>
       <c r="F293" s="144"/>
       <c r="G293" s="144"/>
       <c r="H293" s="144"/>
@@ -17327,10 +17279,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="192"/>
-      <c r="B294" s="285"/>
-      <c r="C294" s="285"/>
+      <c r="B294" s="287"/>
+      <c r="C294" s="287"/>
       <c r="D294" s="183"/>
-      <c r="E294" s="285"/>
+      <c r="E294" s="287"/>
       <c r="F294" s="144"/>
       <c r="G294" s="144"/>
       <c r="H294" s="144"/>
@@ -17358,10 +17310,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1">
       <c r="A295" s="192"/>
-      <c r="B295" s="285"/>
-      <c r="C295" s="285"/>
+      <c r="B295" s="287"/>
+      <c r="C295" s="287"/>
       <c r="D295" s="183"/>
-      <c r="E295" s="285"/>
+      <c r="E295" s="287"/>
       <c r="F295" s="144"/>
       <c r="G295" s="144"/>
       <c r="H295" s="144"/>
@@ -17389,10 +17341,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1">
       <c r="A296" s="192"/>
-      <c r="B296" s="285"/>
-      <c r="C296" s="285"/>
+      <c r="B296" s="287"/>
+      <c r="C296" s="287"/>
       <c r="D296" s="183"/>
-      <c r="E296" s="285"/>
+      <c r="E296" s="287"/>
       <c r="F296" s="144"/>
       <c r="G296" s="144"/>
       <c r="H296" s="144"/>
@@ -17420,10 +17372,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1">
       <c r="A297" s="192"/>
-      <c r="B297" s="285"/>
-      <c r="C297" s="285"/>
+      <c r="B297" s="287"/>
+      <c r="C297" s="287"/>
       <c r="D297" s="183"/>
-      <c r="E297" s="285"/>
+      <c r="E297" s="287"/>
       <c r="F297" s="207"/>
       <c r="G297" s="207"/>
       <c r="H297" s="207"/>
@@ -17451,10 +17403,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1">
       <c r="A298" s="192"/>
-      <c r="B298" s="285"/>
-      <c r="C298" s="285"/>
+      <c r="B298" s="287"/>
+      <c r="C298" s="287"/>
       <c r="D298" s="183"/>
-      <c r="E298" s="285"/>
+      <c r="E298" s="287"/>
       <c r="F298" s="144"/>
       <c r="G298" s="144"/>
       <c r="H298" s="144"/>
@@ -17482,10 +17434,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1">
       <c r="A299" s="192"/>
-      <c r="B299" s="285"/>
-      <c r="C299" s="285"/>
+      <c r="B299" s="287"/>
+      <c r="C299" s="287"/>
       <c r="D299" s="183"/>
-      <c r="E299" s="288"/>
+      <c r="E299" s="289"/>
       <c r="F299" s="144"/>
       <c r="G299" s="144"/>
       <c r="H299" s="144"/>
@@ -17513,8 +17465,8 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1">
       <c r="A300" s="192"/>
-      <c r="B300" s="285"/>
-      <c r="C300" s="285"/>
+      <c r="B300" s="287"/>
+      <c r="C300" s="287"/>
       <c r="D300" s="183"/>
       <c r="E300" s="188"/>
       <c r="F300" s="141"/>
@@ -17544,8 +17496,8 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1">
       <c r="A301" s="192"/>
-      <c r="B301" s="285"/>
-      <c r="C301" s="285"/>
+      <c r="B301" s="287"/>
+      <c r="C301" s="287"/>
       <c r="D301" s="183"/>
       <c r="E301" s="188"/>
       <c r="F301" s="142"/>
@@ -17575,10 +17527,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1">
       <c r="A302" s="192"/>
-      <c r="B302" s="285"/>
-      <c r="C302" s="285"/>
+      <c r="B302" s="287"/>
+      <c r="C302" s="287"/>
       <c r="D302" s="208"/>
-      <c r="E302" s="291"/>
+      <c r="E302" s="300"/>
       <c r="F302" s="151"/>
       <c r="G302" s="151"/>
       <c r="H302" s="151"/>
@@ -17606,10 +17558,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1">
       <c r="A303" s="192"/>
-      <c r="B303" s="285"/>
-      <c r="C303" s="285"/>
+      <c r="B303" s="287"/>
+      <c r="C303" s="287"/>
       <c r="D303" s="189"/>
-      <c r="E303" s="285"/>
+      <c r="E303" s="287"/>
       <c r="F303" s="142"/>
       <c r="G303" s="142"/>
       <c r="H303" s="142"/>
@@ -17637,10 +17589,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1">
       <c r="A304" s="192"/>
-      <c r="B304" s="285"/>
-      <c r="C304" s="285"/>
+      <c r="B304" s="287"/>
+      <c r="C304" s="287"/>
       <c r="D304" s="189"/>
-      <c r="E304" s="285"/>
+      <c r="E304" s="287"/>
       <c r="F304" s="142"/>
       <c r="G304" s="142"/>
       <c r="H304" s="142"/>
@@ -17668,10 +17620,10 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1">
       <c r="A305" s="192"/>
-      <c r="B305" s="285"/>
-      <c r="C305" s="288"/>
+      <c r="B305" s="287"/>
+      <c r="C305" s="289"/>
       <c r="D305" s="168"/>
-      <c r="E305" s="288"/>
+      <c r="E305" s="289"/>
       <c r="F305" s="142"/>
       <c r="G305" s="142"/>
       <c r="H305" s="142"/>
@@ -17699,7 +17651,7 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1">
       <c r="A306" s="192"/>
-      <c r="B306" s="285"/>
+      <c r="B306" s="287"/>
       <c r="C306" s="183"/>
       <c r="D306" s="189"/>
       <c r="E306" s="189"/>
@@ -17730,10 +17682,10 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1">
       <c r="A307" s="192"/>
-      <c r="B307" s="285"/>
-      <c r="C307" s="291"/>
+      <c r="B307" s="287"/>
+      <c r="C307" s="300"/>
       <c r="D307" s="208"/>
-      <c r="E307" s="294"/>
+      <c r="E307" s="302"/>
       <c r="F307" s="151"/>
       <c r="G307" s="151"/>
       <c r="H307" s="151"/>
@@ -17761,10 +17713,10 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1">
       <c r="A308" s="192"/>
-      <c r="B308" s="285"/>
-      <c r="C308" s="285"/>
+      <c r="B308" s="287"/>
+      <c r="C308" s="287"/>
       <c r="D308" s="168"/>
-      <c r="E308" s="288"/>
+      <c r="E308" s="289"/>
       <c r="F308" s="151"/>
       <c r="G308" s="151"/>
       <c r="H308" s="151"/>
@@ -17792,10 +17744,10 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1">
       <c r="A309" s="192"/>
-      <c r="B309" s="285"/>
-      <c r="C309" s="285"/>
+      <c r="B309" s="287"/>
+      <c r="C309" s="287"/>
       <c r="D309" s="183"/>
-      <c r="E309" s="294"/>
+      <c r="E309" s="302"/>
       <c r="F309" s="151"/>
       <c r="G309" s="151"/>
       <c r="H309" s="151"/>
@@ -17823,10 +17775,10 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1">
       <c r="A310" s="192"/>
-      <c r="B310" s="285"/>
-      <c r="C310" s="288"/>
+      <c r="B310" s="287"/>
+      <c r="C310" s="289"/>
       <c r="D310" s="183"/>
-      <c r="E310" s="288"/>
+      <c r="E310" s="289"/>
       <c r="F310" s="151"/>
       <c r="G310" s="151"/>
       <c r="H310" s="151"/>
@@ -17854,7 +17806,7 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1">
       <c r="A311" s="192"/>
-      <c r="B311" s="285"/>
+      <c r="B311" s="287"/>
       <c r="C311" s="188"/>
       <c r="D311" s="188"/>
       <c r="E311" s="192"/>
@@ -17885,10 +17837,10 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1">
       <c r="A312" s="192"/>
-      <c r="B312" s="285"/>
-      <c r="C312" s="291"/>
+      <c r="B312" s="287"/>
+      <c r="C312" s="300"/>
       <c r="D312" s="208"/>
-      <c r="E312" s="291"/>
+      <c r="E312" s="300"/>
       <c r="F312" s="151"/>
       <c r="G312" s="151"/>
       <c r="H312" s="151"/>
@@ -17916,10 +17868,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1">
       <c r="A313" s="192"/>
-      <c r="B313" s="285"/>
-      <c r="C313" s="285"/>
+      <c r="B313" s="287"/>
+      <c r="C313" s="287"/>
       <c r="D313" s="189"/>
-      <c r="E313" s="285"/>
+      <c r="E313" s="287"/>
       <c r="F313" s="151"/>
       <c r="G313" s="151"/>
       <c r="H313" s="151"/>
@@ -17947,10 +17899,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1">
       <c r="A314" s="192"/>
-      <c r="B314" s="285"/>
-      <c r="C314" s="285"/>
+      <c r="B314" s="287"/>
+      <c r="C314" s="287"/>
       <c r="D314" s="189"/>
-      <c r="E314" s="285"/>
+      <c r="E314" s="287"/>
       <c r="F314" s="151"/>
       <c r="G314" s="151"/>
       <c r="H314" s="151"/>
@@ -17978,10 +17930,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1">
       <c r="A315" s="192"/>
-      <c r="B315" s="285"/>
-      <c r="C315" s="285"/>
+      <c r="B315" s="287"/>
+      <c r="C315" s="287"/>
       <c r="D315" s="189"/>
-      <c r="E315" s="285"/>
+      <c r="E315" s="287"/>
       <c r="F315" s="151"/>
       <c r="G315" s="151"/>
       <c r="H315" s="151"/>
@@ -18009,10 +17961,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1">
       <c r="A316" s="192"/>
-      <c r="B316" s="285"/>
-      <c r="C316" s="285"/>
+      <c r="B316" s="287"/>
+      <c r="C316" s="287"/>
       <c r="D316" s="189"/>
-      <c r="E316" s="285"/>
+      <c r="E316" s="287"/>
       <c r="F316" s="144"/>
       <c r="G316" s="144"/>
       <c r="H316" s="144"/>
@@ -18040,10 +17992,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1">
       <c r="A317" s="192"/>
-      <c r="B317" s="285"/>
-      <c r="C317" s="285"/>
+      <c r="B317" s="287"/>
+      <c r="C317" s="287"/>
       <c r="D317" s="168"/>
-      <c r="E317" s="288"/>
+      <c r="E317" s="289"/>
       <c r="F317" s="144"/>
       <c r="G317" s="144"/>
       <c r="H317" s="144"/>
@@ -18071,10 +18023,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1">
       <c r="A318" s="192"/>
-      <c r="B318" s="285"/>
-      <c r="C318" s="285"/>
+      <c r="B318" s="287"/>
+      <c r="C318" s="287"/>
       <c r="D318" s="208"/>
-      <c r="E318" s="291"/>
+      <c r="E318" s="300"/>
       <c r="F318" s="151"/>
       <c r="G318" s="151"/>
       <c r="H318" s="151"/>
@@ -18102,10 +18054,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1">
       <c r="A319" s="192"/>
-      <c r="B319" s="285"/>
-      <c r="C319" s="285"/>
+      <c r="B319" s="287"/>
+      <c r="C319" s="287"/>
       <c r="D319" s="189"/>
-      <c r="E319" s="285"/>
+      <c r="E319" s="287"/>
       <c r="F319" s="142"/>
       <c r="G319" s="142"/>
       <c r="H319" s="142"/>
@@ -18133,10 +18085,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1">
       <c r="A320" s="192"/>
-      <c r="B320" s="285"/>
-      <c r="C320" s="285"/>
+      <c r="B320" s="287"/>
+      <c r="C320" s="287"/>
       <c r="D320" s="189"/>
-      <c r="E320" s="285"/>
+      <c r="E320" s="287"/>
       <c r="F320" s="142"/>
       <c r="G320" s="142"/>
       <c r="H320" s="142"/>
@@ -18164,10 +18116,10 @@
     </row>
     <row r="321" spans="1:29" ht="15.75" customHeight="1">
       <c r="A321" s="192"/>
-      <c r="B321" s="288"/>
-      <c r="C321" s="288"/>
+      <c r="B321" s="289"/>
+      <c r="C321" s="289"/>
       <c r="D321" s="168"/>
-      <c r="E321" s="288"/>
+      <c r="E321" s="289"/>
       <c r="F321" s="142"/>
       <c r="G321" s="142"/>
       <c r="H321" s="142"/>
@@ -20917,38 +20869,6 @@
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D110:D119"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D124:D130"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="K275:K276"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="K279:K280"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="B292:B321"/>
-    <mergeCell ref="C312:C321"/>
-    <mergeCell ref="E312:E317"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="C259:C263"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="C292:C305"/>
-    <mergeCell ref="E292:E299"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="C307:C310"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="E309:E310"/>
-    <mergeCell ref="D189:D197"/>
-    <mergeCell ref="K240:K242"/>
-    <mergeCell ref="L240:L242"/>
-    <mergeCell ref="C249:C255"/>
-    <mergeCell ref="E249:E251"/>
     <mergeCell ref="D10:D60"/>
     <mergeCell ref="C19:C56"/>
     <mergeCell ref="C58:C60"/>
@@ -20965,6 +20885,38 @@
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="C62:C74"/>
     <mergeCell ref="D62:D74"/>
+    <mergeCell ref="D189:D197"/>
+    <mergeCell ref="K240:K242"/>
+    <mergeCell ref="L240:L242"/>
+    <mergeCell ref="C249:C255"/>
+    <mergeCell ref="E249:E251"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="C259:C263"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="C292:C305"/>
+    <mergeCell ref="E292:E299"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="K275:K276"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="K279:K280"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="B292:B321"/>
+    <mergeCell ref="C312:C321"/>
+    <mergeCell ref="E312:E317"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="C307:C310"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="E309:E310"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="D110:D119"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D124:D130"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D144:D145"/>
   </mergeCells>
   <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
@@ -21036,48 +20988,48 @@
     <row r="1" spans="1:26" ht="13.5" customHeight="1"/>
     <row r="2" spans="1:26" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D3" s="309" t="s">
+      <c r="D3" s="315" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="258"/>
+      <c r="E3" s="263"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D4" s="259"/>
-      <c r="E4" s="261"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="266"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D5" s="259"/>
-      <c r="E5" s="261"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="266"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D6" s="262"/>
-      <c r="E6" s="264"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="269"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="D7" s="310" t="s">
+      <c r="D7" s="316" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="267"/>
+      <c r="E7" s="275"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1">
-      <c r="D8" s="311"/>
-      <c r="E8" s="312"/>
+      <c r="D8" s="317"/>
+      <c r="E8" s="318"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D9" s="313" t="s">
+      <c r="D9" s="319" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="267"/>
+      <c r="E9" s="275"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1">
-      <c r="D10" s="311"/>
-      <c r="E10" s="312"/>
+      <c r="D10" s="317"/>
+      <c r="E10" s="318"/>
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
-      <c r="D11" s="314" t="s">
+      <c r="D11" s="320" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="315"/>
+      <c r="E11" s="321"/>
     </row>
     <row r="12" spans="1:26" ht="80.25" customHeight="1">
       <c r="D12" s="232" t="s">
@@ -22210,21 +22162,21 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="316" t="s">
+      <c r="B3" s="322" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="258"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="263"/>
       <c r="F3" s="240"/>
       <c r="G3" s="240"/>
       <c r="H3" s="240"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1">
-      <c r="B4" s="262"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="264"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="269"/>
       <c r="F4" s="240"/>
       <c r="G4" s="240"/>
       <c r="H4" s="240"/>
